--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pepetts/lesson/python_lesson/asset_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D8C4CB-9AD7-8448-9ADA-7E65901FEBE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7BA7AB-C6FE-0B40-8222-617033DE1B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="27660" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="27660" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,11 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color rgb="FF000000"/>
+            <color theme="1"/>
             <rFont val="游ゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
+            <scheme val="minor"/>
           </rPr>
           <t>数値が大きいほど投資環境が良好</t>
         </r>
@@ -162,13 +163,43 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="游ゴシック"/>
-            <family val="2"/>
+            <family val="3"/>
             <charset val="128"/>
-            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">FF金利誘導目標
+          <t>FF</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="游ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>金利誘導目標</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="游ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="游ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -210,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="64">
   <si>
     <t>政策金利</t>
   </si>
@@ -327,6 +358,9 @@
   </si>
   <si>
     <t>ドル指数</t>
+  </si>
+  <si>
+    <t>2019-05-01</t>
   </si>
   <si>
     <t>黄色いセルのみ入力する。</t>
@@ -704,7 +738,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -779,10 +813,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -794,7 +828,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -827,30 +860,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,8 +891,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1257,19 +1290,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="28" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="28" customWidth="1"/>
-    <col min="8" max="24" width="7.5703125" style="28" customWidth="1"/>
-    <col min="25" max="16384" width="7.5703125" style="28"/>
+    <col min="1" max="1" width="4.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="29" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="29" customWidth="1"/>
+    <col min="8" max="29" width="7.5703125" style="29" customWidth="1"/>
+    <col min="30" max="16384" width="7.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
@@ -1303,16 +1336,16 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="60">
         <v>2.42</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="60">
         <v>1.7</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1321,16 +1354,16 @@
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <f>IF(E6&lt;=0.25,2,IF(E6&gt;0.25,-2))</f>
         <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="4">
         <f>C5-D5</f>
         <v>0.72</v>
@@ -1338,47 +1371,47 @@
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="49">
         <f>C18-C5</f>
         <v>1.0000000000000231E-2</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <f>IF(E9&gt;=1,2,IF(1&gt;E9&gt;=0,0,IF(E9&lt;0,-2)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="57"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="57"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="4">
         <f>C7</f>
         <v>1.0000000000000231E-2</v>
@@ -1386,19 +1419,19 @@
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53">
         <v>2.23</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>1.89</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1407,16 +1440,16 @@
       <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <f>IF(E11&lt;=0,2,IF(E11&gt;0,-2))</f>
         <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="47"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="4">
         <f>C10-D10</f>
         <v>0.34000000000000008</v>
@@ -1424,20 +1457,20 @@
       <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>4</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="49">
         <f>C19-C18</f>
         <v>-0.7200000000000002</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="49">
         <f>D19-D18</f>
         <v>-0.83000000000000007</v>
       </c>
@@ -1447,16 +1480,16 @@
       <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="50">
         <f>IF(E13&lt;=0.1,2,IF(E13&gt;0.1,-2))</f>
         <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="4">
         <f>C12-D12</f>
         <v>0.10999999999999988</v>
@@ -1464,19 +1497,19 @@
       <c r="F13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>5</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="53">
         <v>92.268299999999996</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <v>88.691400000000002</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1485,24 +1518,24 @@
       <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="54">
         <f>IF(E15&lt;=1,2,IF(E15&gt;1,-2))</f>
         <v>-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" customHeight="1" thickBot="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="4">
         <f>C14/D14</f>
         <v>1.0403297275722336</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7" ht="19" customHeight="1" thickBot="1">
       <c r="F16" s="5" t="s">
@@ -1525,13 +1558,13 @@
       <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>2.4300000000000002</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>2.83</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="29">
         <f>'[1]10年国債利回り'!B38</f>
         <v>2.42</v>
       </c>
@@ -1540,25 +1573,20 @@
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>1.71</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -1570,11 +1598,16 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -1594,17 +1627,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G780"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B765" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H779" sqref="H779"/>
+      <selection pane="bottomRight" activeCell="H775" sqref="H775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="18" width="17.7109375" style="26" customWidth="1"/>
-    <col min="19" max="16384" width="17.7109375" style="26"/>
+    <col min="1" max="1" width="11.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="23" width="17.7109375" style="26" customWidth="1"/>
+    <col min="24" max="16384" width="17.7109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -13979,7 +14013,7 @@
       </c>
     </row>
     <row r="779" spans="1:7">
-      <c r="A779" s="35">
+      <c r="A779" s="31">
         <v>43556</v>
       </c>
       <c r="B779">
@@ -14003,14 +14037,21 @@
       </c>
     </row>
     <row r="780" spans="1:7">
-      <c r="A780" s="35">
-        <v>43586</v>
+      <c r="A780" t="s">
+        <v>39</v>
       </c>
       <c r="B780">
         <v>2.42</v>
       </c>
+      <c r="C780" s="34">
+        <v>2.5</v>
+      </c>
       <c r="D780">
         <v>2.4300000000000002</v>
+      </c>
+      <c r="E780" s="33">
+        <f t="shared" si="5"/>
+        <v>-6.999999999999984E-2</v>
       </c>
       <c r="F780">
         <v>2.23</v>
@@ -14036,18 +14077,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="28" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="28" customWidth="1"/>
-    <col min="8" max="24" width="7.5703125" style="28" customWidth="1"/>
-    <col min="25" max="16384" width="7.5703125" style="28"/>
+    <col min="1" max="1" width="4.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="29" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="29" customWidth="1"/>
+    <col min="8" max="29" width="7.5703125" style="29" customWidth="1"/>
+    <col min="30" max="16384" width="7.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -14071,16 +14112,16 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="60">
         <v>1.91</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="60">
         <v>1.1499999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -14089,16 +14130,16 @@
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <f>IF(E6&lt;=0.25,2,IF(E6&gt;0.25,-2))</f>
         <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="4">
         <f>C5-D5</f>
         <v>0.76</v>
@@ -14106,47 +14147,47 @@
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="49">
         <f>C18-C5</f>
         <v>0.95</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <f>IF(E9&gt;=1,2,IF(1&gt;E9&gt;=0,0,IF(E9&lt;0,-2)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="57"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="57"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="4">
         <f>C7</f>
         <v>0.95</v>
@@ -14154,19 +14195,19 @@
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53">
         <v>1.88</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>2.1</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -14175,16 +14216,16 @@
       <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <f>IF(E11&lt;=0,2,IF(E11&gt;0,-2))</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="47"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="4">
         <f>C10-D10</f>
         <v>-0.2200000000000002</v>
@@ -14192,20 +14233,20 @@
       <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>4</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="49">
         <f>C19-C18</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="49">
         <f>D19-D18</f>
         <v>-0.12000000000000011</v>
       </c>
@@ -14215,16 +14256,16 @@
       <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="50">
         <f>IF(E13&lt;=0.1,2,IF(E13&gt;0.1,-2))</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="4">
         <f>C12-D12</f>
         <v>-1.0299999999999998</v>
@@ -14232,19 +14273,19 @@
       <c r="F13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>5</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="53">
         <v>89.997600000000006</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <v>88.686599999999999</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -14253,24 +14294,24 @@
       <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="54">
         <f>IF(E15&lt;=1,2,IF(E15&gt;1,-2))</f>
         <v>-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" customHeight="1" thickBot="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="4">
         <f>C14/D14</f>
         <v>1.0147823910263785</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7" ht="19" customHeight="1" thickBot="1">
       <c r="F16" s="5" t="s">
@@ -14293,13 +14334,13 @@
       <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>2.86</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>2.12</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="29">
         <f>'[1]10年国債利回り'!B38</f>
         <v>2.42</v>
       </c>
@@ -14308,25 +14349,20 @@
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>1.71</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -14338,11 +14374,16 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -14363,22 +14404,22 @@
   <dimension ref="A1:X180"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="36" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="37" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.140625" style="9" bestFit="1" customWidth="1"/>
@@ -14387,53 +14428,53 @@
     <col min="16" max="16" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" style="9" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="34" width="7.5703125" style="9" customWidth="1"/>
-    <col min="35" max="16384" width="7.5703125" style="9"/>
+    <col min="19" max="39" width="7.5703125" style="9" customWidth="1"/>
+    <col min="40" max="16384" width="7.5703125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="B1" s="36" t="s">
-        <v>40</v>
+      <c r="B1" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="40" t="s">
         <v>42</v>
       </c>
+      <c r="D1" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="E1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>45</v>
+      <c r="H1" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>46</v>
+      <c r="J1" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="42">
+        <v>51</v>
+      </c>
+      <c r="B2" s="41">
         <v>38353</v>
       </c>
       <c r="D2" s="9">
@@ -14445,7 +14486,7 @@
       <c r="F2" s="9">
         <v>2.25</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="38">
         <f t="shared" ref="G2:G33" si="0">E2-F2</f>
         <v>1.8899999999999997</v>
       </c>
@@ -14467,9 +14508,9 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="42">
+        <v>52</v>
+      </c>
+      <c r="B3" s="41">
         <v>38384</v>
       </c>
       <c r="D3" s="9">
@@ -14481,7 +14522,7 @@
       <c r="F3" s="9">
         <v>2.5</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <f t="shared" si="0"/>
         <v>1.8600000000000003</v>
       </c>
@@ -14508,9 +14549,9 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="42">
+        <v>53</v>
+      </c>
+      <c r="B4" s="41">
         <v>38412</v>
       </c>
       <c r="D4" s="9">
@@ -14522,7 +14563,7 @@
       <c r="F4" s="9">
         <v>2.75</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
@@ -14549,9 +14590,9 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="42">
+        <v>54</v>
+      </c>
+      <c r="B5" s="41">
         <v>38443</v>
       </c>
       <c r="D5" s="9">
@@ -14563,7 +14604,7 @@
       <c r="F5" s="9">
         <v>2.75</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <f t="shared" si="0"/>
         <v>1.46</v>
       </c>
@@ -14590,9 +14631,9 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="42">
+        <v>55</v>
+      </c>
+      <c r="B6" s="41">
         <v>38473</v>
       </c>
       <c r="D6" s="9">
@@ -14604,7 +14645,7 @@
       <c r="F6" s="9">
         <v>3</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -14631,9 +14672,9 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="42">
+        <v>56</v>
+      </c>
+      <c r="B7" s="41">
         <v>38504</v>
       </c>
       <c r="D7" s="9">
@@ -14645,7 +14686,7 @@
       <c r="F7" s="9">
         <v>3.25</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
@@ -14672,9 +14713,9 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="42">
+        <v>57</v>
+      </c>
+      <c r="B8" s="41">
         <v>38534</v>
       </c>
       <c r="D8" s="9">
@@ -14686,7 +14727,7 @@
       <c r="F8" s="9">
         <v>3.25</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <f t="shared" si="0"/>
         <v>1.0300000000000002</v>
       </c>
@@ -14713,9 +14754,9 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="42">
+        <v>58</v>
+      </c>
+      <c r="B9" s="41">
         <v>38565</v>
       </c>
       <c r="D9" s="9">
@@ -14727,7 +14768,7 @@
       <c r="F9" s="9">
         <v>3.5</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <f t="shared" si="0"/>
         <v>0.51999999999999957</v>
       </c>
@@ -14754,9 +14795,9 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="42">
+        <v>59</v>
+      </c>
+      <c r="B10" s="41">
         <v>38596</v>
       </c>
       <c r="D10" s="9">
@@ -14768,7 +14809,7 @@
       <c r="F10" s="9">
         <v>3.75</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>0.58999999999999986</v>
       </c>
@@ -14795,9 +14836,9 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="42">
+        <v>60</v>
+      </c>
+      <c r="B11" s="41">
         <v>38626</v>
       </c>
       <c r="D11" s="9">
@@ -14809,7 +14850,7 @@
       <c r="F11" s="9">
         <v>3.75</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>0.82000000000000028</v>
       </c>
@@ -14836,9 +14877,9 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="42">
+        <v>61</v>
+      </c>
+      <c r="B12" s="41">
         <v>38657</v>
       </c>
       <c r="D12" s="9">
@@ -14850,7 +14891,7 @@
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <f t="shared" si="0"/>
         <v>0.49000000000000021</v>
       </c>
@@ -14877,9 +14918,9 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="42">
+        <v>62</v>
+      </c>
+      <c r="B13" s="41">
         <v>38687</v>
       </c>
       <c r="D13" s="9">
@@ -14891,7 +14932,7 @@
       <c r="F13" s="9">
         <v>4.25</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <f t="shared" si="0"/>
         <v>0.13999999999999968</v>
       </c>
@@ -14918,9 +14959,9 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="42">
+        <v>63</v>
+      </c>
+      <c r="B14" s="41">
         <v>38718</v>
       </c>
       <c r="D14" s="9">
@@ -14932,7 +14973,7 @@
       <c r="F14" s="9">
         <v>4.5</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <f t="shared" si="0"/>
         <v>3.0000000000000249E-2</v>
       </c>
@@ -14959,9 +15000,9 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="42">
+        <v>52</v>
+      </c>
+      <c r="B15" s="41">
         <v>38749</v>
       </c>
       <c r="D15" s="9">
@@ -14973,7 +15014,7 @@
       <c r="F15" s="9">
         <v>4.5</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
@@ -15000,9 +15041,9 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="42">
+        <v>53</v>
+      </c>
+      <c r="B16" s="41">
         <v>38777</v>
       </c>
       <c r="D16" s="9">
@@ -15014,7 +15055,7 @@
       <c r="F16" s="9">
         <v>4.75</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <f t="shared" si="0"/>
         <v>0.11000000000000032</v>
       </c>
@@ -15041,9 +15082,9 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="42">
+        <v>54</v>
+      </c>
+      <c r="B17" s="41">
         <v>38808</v>
       </c>
       <c r="D17" s="9">
@@ -15055,7 +15096,7 @@
       <c r="F17" s="9">
         <v>4.75</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <f t="shared" si="0"/>
         <v>0.32000000000000028</v>
       </c>
@@ -15082,9 +15123,9 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="42">
+        <v>55</v>
+      </c>
+      <c r="B18" s="41">
         <v>38838</v>
       </c>
       <c r="D18" s="9">
@@ -15096,7 +15137,7 @@
       <c r="F18" s="9">
         <v>5</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <f t="shared" si="0"/>
         <v>0.12000000000000011</v>
       </c>
@@ -15123,9 +15164,9 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="42">
+        <v>56</v>
+      </c>
+      <c r="B19" s="41">
         <v>38869</v>
       </c>
       <c r="D19" s="9">
@@ -15137,7 +15178,7 @@
       <c r="F19" s="9">
         <v>5.25</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <f t="shared" si="0"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -15164,9 +15205,9 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="42">
+        <v>57</v>
+      </c>
+      <c r="B20" s="41">
         <v>38899</v>
       </c>
       <c r="D20" s="9">
@@ -15178,7 +15219,7 @@
       <c r="F20" s="9">
         <v>5.25</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <f t="shared" si="0"/>
         <v>-0.25999999999999979</v>
       </c>
@@ -15205,9 +15246,9 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="42">
+        <v>58</v>
+      </c>
+      <c r="B21" s="41">
         <v>38930</v>
       </c>
       <c r="D21" s="9">
@@ -15219,7 +15260,7 @@
       <c r="F21" s="9">
         <v>5.25</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <f t="shared" si="0"/>
         <v>-0.50999999999999979</v>
       </c>
@@ -15246,9 +15287,9 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="42">
+        <v>59</v>
+      </c>
+      <c r="B22" s="41">
         <v>38961</v>
       </c>
       <c r="D22" s="9">
@@ -15260,7 +15301,7 @@
       <c r="F22" s="9">
         <v>5.25</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="38">
         <f t="shared" si="0"/>
         <v>-0.61000000000000032</v>
       </c>
@@ -15287,9 +15328,9 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="42">
+        <v>60</v>
+      </c>
+      <c r="B23" s="41">
         <v>38991</v>
       </c>
       <c r="D23" s="9">
@@ -15301,7 +15342,7 @@
       <c r="F23" s="9">
         <v>5.25</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <f t="shared" si="0"/>
         <v>-0.63999999999999968</v>
       </c>
@@ -15328,9 +15369,9 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="42">
+        <v>61</v>
+      </c>
+      <c r="B24" s="41">
         <v>39022</v>
       </c>
       <c r="D24" s="9">
@@ -15342,7 +15383,7 @@
       <c r="F24" s="9">
         <v>5.25</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="38">
         <f t="shared" si="0"/>
         <v>-0.79</v>
       </c>
@@ -15369,9 +15410,9 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="42">
+        <v>62</v>
+      </c>
+      <c r="B25" s="41">
         <v>39052</v>
       </c>
       <c r="D25" s="9">
@@ -15383,7 +15424,7 @@
       <c r="F25" s="9">
         <v>5.25</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <f t="shared" si="0"/>
         <v>-0.54</v>
       </c>
@@ -15410,9 +15451,9 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="42">
+        <v>63</v>
+      </c>
+      <c r="B26" s="41">
         <v>39083</v>
       </c>
       <c r="D26" s="9">
@@ -15424,7 +15465,7 @@
       <c r="F26" s="9">
         <v>5.25</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="38">
         <f t="shared" si="0"/>
         <v>-0.41999999999999993</v>
       </c>
@@ -15451,9 +15492,9 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="42">
+        <v>52</v>
+      </c>
+      <c r="B27" s="41">
         <v>39114</v>
       </c>
       <c r="D27" s="9">
@@ -15465,7 +15506,7 @@
       <c r="F27" s="9">
         <v>5.25</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="38">
         <f t="shared" si="0"/>
         <v>-0.69000000000000039</v>
       </c>
@@ -15492,9 +15533,9 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="42">
+        <v>53</v>
+      </c>
+      <c r="B28" s="41">
         <v>39142</v>
       </c>
       <c r="D28" s="9">
@@ -15506,7 +15547,7 @@
       <c r="F28" s="9">
         <v>5.25</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="38">
         <f t="shared" si="0"/>
         <v>-0.59999999999999964</v>
       </c>
@@ -15516,7 +15557,7 @@
       <c r="I28" s="14">
         <v>1.75</v>
       </c>
-      <c r="J28" s="38"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="15">
         <v>0.98830409356725135</v>
       </c>
@@ -15534,9 +15575,9 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="42">
+        <v>54</v>
+      </c>
+      <c r="B29" s="41">
         <v>39173</v>
       </c>
       <c r="D29" s="9">
@@ -15548,7 +15589,7 @@
       <c r="F29" s="9">
         <v>5.25</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="38">
         <f t="shared" si="0"/>
         <v>-0.62000000000000011</v>
       </c>
@@ -15558,7 +15599,7 @@
       <c r="I29" s="14">
         <v>1.68</v>
       </c>
-      <c r="J29" s="38"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="15">
         <v>0.98294350034489242</v>
       </c>
@@ -15576,9 +15617,9 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="42">
+        <v>55</v>
+      </c>
+      <c r="B30" s="41">
         <v>39203</v>
       </c>
       <c r="C30" s="10">
@@ -15593,7 +15634,7 @@
       <c r="F30" s="9">
         <v>5.25</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="38">
         <f t="shared" si="0"/>
         <v>-0.34999999999999964</v>
       </c>
@@ -15603,7 +15644,7 @@
       <c r="I30" s="14">
         <v>1.6</v>
       </c>
-      <c r="J30" s="38"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="15">
         <v>0.98305592144653342</v>
       </c>
@@ -15621,9 +15662,9 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="42">
+        <v>56</v>
+      </c>
+      <c r="B31" s="41">
         <v>39234</v>
       </c>
       <c r="C31" s="10">
@@ -15638,7 +15679,7 @@
       <c r="F31" s="9">
         <v>5.25</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="38">
         <f t="shared" si="0"/>
         <v>-0.21999999999999975</v>
       </c>
@@ -15648,7 +15689,7 @@
       <c r="I31" s="14">
         <v>1.59</v>
       </c>
-      <c r="J31" s="38"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="15">
         <v>0.90922459136926648</v>
       </c>
@@ -15666,9 +15707,9 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="42">
+        <v>57</v>
+      </c>
+      <c r="B32" s="41">
         <v>39264</v>
       </c>
       <c r="C32" s="10">
@@ -15683,7 +15724,7 @@
       <c r="F32" s="9">
         <v>5.25</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="38">
         <f t="shared" si="0"/>
         <v>-0.46999999999999975</v>
       </c>
@@ -15693,7 +15734,7 @@
       <c r="I32" s="14">
         <v>1.85</v>
       </c>
-      <c r="J32" s="38"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="15">
         <v>0.83420334559259701</v>
       </c>
@@ -15711,9 +15752,9 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="42">
+        <v>58</v>
+      </c>
+      <c r="B33" s="41">
         <v>39295</v>
       </c>
       <c r="C33" s="10">
@@ -15728,7 +15769,7 @@
       <c r="F33" s="9">
         <v>5.25</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <f t="shared" si="0"/>
         <v>-0.71</v>
       </c>
@@ -15738,7 +15779,7 @@
       <c r="I33" s="14">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J33" s="38"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="15">
         <v>0.81507460024965828</v>
       </c>
@@ -15756,9 +15797,9 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="42">
+        <v>59</v>
+      </c>
+      <c r="B34" s="41">
         <v>39326</v>
       </c>
       <c r="C34" s="10">
@@ -15773,7 +15814,7 @@
       <c r="F34" s="9">
         <v>4.75</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <f t="shared" ref="G34:G65" si="1">E34-F34</f>
         <v>-0.16000000000000014</v>
       </c>
@@ -15783,7 +15824,7 @@
       <c r="I34" s="14">
         <v>2</v>
       </c>
-      <c r="J34" s="38"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="15">
         <v>0.79298831385642732</v>
       </c>
@@ -15801,9 +15842,9 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="42">
+        <v>60</v>
+      </c>
+      <c r="B35" s="41">
         <v>39356</v>
       </c>
       <c r="C35" s="10">
@@ -15818,7 +15859,7 @@
       <c r="F35" s="9">
         <v>4.5</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="38">
         <f t="shared" si="1"/>
         <v>-1.9999999999999574E-2</v>
       </c>
@@ -15828,7 +15869,7 @@
       <c r="I35" s="14">
         <v>1.99</v>
       </c>
-      <c r="J35" s="38"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="15">
         <v>0.79654822335025388</v>
       </c>
@@ -15846,9 +15887,9 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="42">
+        <v>61</v>
+      </c>
+      <c r="B36" s="41">
         <v>39387</v>
       </c>
       <c r="C36" s="10">
@@ -15863,7 +15904,7 @@
       <c r="F36" s="9">
         <v>4.5</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="38">
         <f t="shared" si="1"/>
         <v>-0.5299999999999998</v>
       </c>
@@ -15873,7 +15914,7 @@
       <c r="I36" s="14">
         <v>2.4700000000000002</v>
       </c>
-      <c r="J36" s="38"/>
+      <c r="J36" s="37"/>
       <c r="K36" s="15">
         <v>0.8174522845575477</v>
       </c>
@@ -15891,9 +15932,9 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="42">
+        <v>62</v>
+      </c>
+      <c r="B37" s="41">
         <v>39417</v>
       </c>
       <c r="C37" s="10">
@@ -15908,7 +15949,7 @@
       <c r="F37" s="9">
         <v>4.25</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="38">
         <f t="shared" si="1"/>
         <v>-0.20999999999999996</v>
       </c>
@@ -15918,7 +15959,7 @@
       <c r="I37" s="14">
         <v>2.52</v>
       </c>
-      <c r="J37" s="38"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="15">
         <v>0.84915913931115516</v>
       </c>
@@ -15936,9 +15977,9 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="42">
+        <v>63</v>
+      </c>
+      <c r="B38" s="41">
         <v>39448</v>
       </c>
       <c r="C38" s="10">
@@ -15953,7 +15994,7 @@
       <c r="F38" s="9">
         <v>3</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="38">
         <f t="shared" si="1"/>
         <v>0.66999999999999993</v>
       </c>
@@ -15963,7 +16004,7 @@
       <c r="I38" s="14">
         <v>2.96</v>
       </c>
-      <c r="J38" s="38"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="15">
         <v>0.89189400453372947</v>
       </c>
@@ -15981,9 +16022,9 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="42">
+        <v>52</v>
+      </c>
+      <c r="B39" s="41">
         <v>39479</v>
       </c>
       <c r="C39" s="10">
@@ -15998,7 +16039,7 @@
       <c r="F39" s="9">
         <v>3</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="38">
         <f t="shared" si="1"/>
         <v>0.5299999999999998</v>
       </c>
@@ -16008,7 +16049,7 @@
       <c r="I39" s="14">
         <v>3.22</v>
       </c>
-      <c r="J39" s="38"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="15">
         <v>0.91959108941104684</v>
       </c>
@@ -16026,9 +16067,9 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="42">
+        <v>53</v>
+      </c>
+      <c r="B40" s="41">
         <v>39508</v>
       </c>
       <c r="C40" s="10">
@@ -16043,7 +16084,7 @@
       <c r="F40" s="9">
         <v>2.25</v>
       </c>
-      <c r="G40" s="39">
+      <c r="G40" s="38">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
@@ -16053,7 +16094,7 @@
       <c r="I40" s="14">
         <v>3.45</v>
       </c>
-      <c r="J40" s="38"/>
+      <c r="J40" s="37"/>
       <c r="K40" s="15">
         <v>0.86668153766079248</v>
       </c>
@@ -16071,9 +16112,9 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="42">
+        <v>54</v>
+      </c>
+      <c r="B41" s="41">
         <v>39539</v>
       </c>
       <c r="C41" s="10">
@@ -16088,7 +16129,7 @@
       <c r="F41" s="9">
         <v>2.25</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G41" s="38">
         <f t="shared" si="1"/>
         <v>1.52</v>
       </c>
@@ -16098,7 +16139,7 @@
       <c r="I41" s="14">
         <v>3.1</v>
       </c>
-      <c r="J41" s="38"/>
+      <c r="J41" s="37"/>
       <c r="K41" s="15">
         <v>0.81529948403499586</v>
       </c>
@@ -16116,9 +16157,9 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="42">
+        <v>55</v>
+      </c>
+      <c r="B42" s="41">
         <v>39569</v>
       </c>
       <c r="C42" s="10">
@@ -16133,7 +16174,7 @@
       <c r="F42" s="9">
         <v>2</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="38">
         <f t="shared" si="1"/>
         <v>2.0599999999999996</v>
       </c>
@@ -16143,7 +16184,7 @@
       <c r="I42" s="14">
         <v>3</v>
       </c>
-      <c r="J42" s="38"/>
+      <c r="J42" s="37"/>
       <c r="K42" s="15">
         <v>0.78392993145468393</v>
       </c>
@@ -16161,9 +16202,9 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="42">
+        <v>56</v>
+      </c>
+      <c r="B43" s="41">
         <v>39600</v>
       </c>
       <c r="C43" s="10">
@@ -16178,7 +16219,7 @@
       <c r="F43" s="9">
         <v>2</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G43" s="38">
         <f t="shared" si="1"/>
         <v>1.9900000000000002</v>
       </c>
@@ -16188,7 +16229,7 @@
       <c r="I43" s="14">
         <v>3.05</v>
       </c>
-      <c r="J43" s="38"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="15">
         <v>0.80548370408691161</v>
       </c>
@@ -16206,9 +16247,9 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="42">
+        <v>57</v>
+      </c>
+      <c r="B44" s="41">
         <v>39630</v>
       </c>
       <c r="C44" s="10">
@@ -16223,7 +16264,7 @@
       <c r="F44" s="9">
         <v>2</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="38">
         <f t="shared" si="1"/>
         <v>1.9900000000000002</v>
       </c>
@@ -16233,7 +16274,7 @@
       <c r="I44" s="14">
         <v>3.22</v>
       </c>
-      <c r="J44" s="38"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="15">
         <v>0.82528778314147788</v>
       </c>
@@ -16251,9 +16292,9 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="42">
+        <v>58</v>
+      </c>
+      <c r="B45" s="41">
         <v>39661</v>
       </c>
       <c r="C45" s="10">
@@ -16268,7 +16309,7 @@
       <c r="F45" s="9">
         <v>2</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="38">
         <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
@@ -16278,7 +16319,7 @@
       <c r="I45" s="14">
         <v>3.29</v>
       </c>
-      <c r="J45" s="38"/>
+      <c r="J45" s="37"/>
       <c r="K45" s="15">
         <v>0.81427900422733679</v>
       </c>
@@ -16296,9 +16337,9 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="42">
+        <v>59</v>
+      </c>
+      <c r="B46" s="41">
         <v>39692</v>
       </c>
       <c r="C46" s="10">
@@ -16313,7 +16354,7 @@
       <c r="F46" s="9">
         <v>2</v>
       </c>
-      <c r="G46" s="39">
+      <c r="G46" s="38">
         <f t="shared" si="1"/>
         <v>1.85</v>
       </c>
@@ -16323,7 +16364,7 @@
       <c r="I46" s="14">
         <v>4</v>
       </c>
-      <c r="J46" s="38"/>
+      <c r="J46" s="37"/>
       <c r="K46" s="15">
         <v>0.70085193572738058</v>
       </c>
@@ -16341,9 +16382,9 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="42">
+        <v>60</v>
+      </c>
+      <c r="B47" s="41">
         <v>39722</v>
       </c>
       <c r="C47" s="10">
@@ -16358,7 +16399,7 @@
       <c r="F47" s="9">
         <v>1</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G47" s="38">
         <f t="shared" si="1"/>
         <v>3.01</v>
       </c>
@@ -16368,7 +16409,7 @@
       <c r="I47" s="14">
         <v>5.53</v>
       </c>
-      <c r="J47" s="38"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="15">
         <v>0.96362175809042927</v>
       </c>
@@ -16386,9 +16427,9 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="42">
+        <v>61</v>
+      </c>
+      <c r="B48" s="41">
         <v>39753</v>
       </c>
       <c r="C48" s="10">
@@ -16403,7 +16444,7 @@
       <c r="F48" s="9">
         <v>1</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G48" s="38">
         <f t="shared" si="1"/>
         <v>1.9300000000000002</v>
       </c>
@@ -16413,7 +16454,7 @@
       <c r="I48" s="14">
         <v>6.1</v>
       </c>
-      <c r="J48" s="43"/>
+      <c r="J48" s="42"/>
       <c r="K48" s="15">
         <v>0.97149231531978186</v>
       </c>
@@ -16431,9 +16472,9 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="42">
+        <v>62</v>
+      </c>
+      <c r="B49" s="41">
         <v>39783</v>
       </c>
       <c r="C49" s="10">
@@ -16448,7 +16489,7 @@
       <c r="F49" s="9">
         <v>0.25</v>
       </c>
-      <c r="G49" s="39">
+      <c r="G49" s="38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -16458,7 +16499,7 @@
       <c r="I49" s="14">
         <v>5.82</v>
       </c>
-      <c r="J49" s="43"/>
+      <c r="J49" s="42"/>
       <c r="K49" s="15">
         <v>0.86124330755502687</v>
       </c>
@@ -16476,9 +16517,9 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="42">
+        <v>63</v>
+      </c>
+      <c r="B50" s="41">
         <v>39814</v>
       </c>
       <c r="C50" s="10">
@@ -16490,10 +16531,10 @@
       <c r="E50" s="22">
         <v>2.87</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="37">
         <v>0.25</v>
       </c>
-      <c r="G50" s="39">
+      <c r="G50" s="38">
         <f t="shared" si="1"/>
         <v>2.62</v>
       </c>
@@ -16503,7 +16544,7 @@
       <c r="I50" s="14">
         <v>5.38</v>
       </c>
-      <c r="J50" s="43"/>
+      <c r="J50" s="42"/>
       <c r="K50" s="15">
         <v>0.47</v>
       </c>
@@ -16521,9 +16562,9 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="42">
+        <v>52</v>
+      </c>
+      <c r="B51" s="41">
         <v>39845</v>
       </c>
       <c r="C51" s="10">
@@ -16535,10 +16576,10 @@
       <c r="E51" s="22">
         <v>3.02</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="37">
         <v>0.25</v>
       </c>
-      <c r="G51" s="39">
+      <c r="G51" s="38">
         <f t="shared" si="1"/>
         <v>2.77</v>
       </c>
@@ -16548,7 +16589,7 @@
       <c r="I51" s="14">
         <v>5.22</v>
       </c>
-      <c r="J51" s="43"/>
+      <c r="J51" s="42"/>
       <c r="K51" s="18">
         <v>0.49</v>
       </c>
@@ -16566,9 +16607,9 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="42">
+        <v>53</v>
+      </c>
+      <c r="B52" s="41">
         <v>39873</v>
       </c>
       <c r="C52" s="10">
@@ -16580,10 +16621,10 @@
       <c r="E52" s="22">
         <v>2.71</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="37">
         <v>0.25</v>
       </c>
-      <c r="G52" s="39">
+      <c r="G52" s="38">
         <f t="shared" si="1"/>
         <v>2.46</v>
       </c>
@@ -16593,7 +16634,7 @@
       <c r="I52" s="14">
         <v>5.74</v>
       </c>
-      <c r="J52" s="43"/>
+      <c r="J52" s="42"/>
       <c r="K52" s="18">
         <v>0.56000000000000005</v>
       </c>
@@ -16611,9 +16652,9 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="42">
+        <v>54</v>
+      </c>
+      <c r="B53" s="41">
         <v>39904</v>
       </c>
       <c r="C53" s="10">
@@ -16625,10 +16666,10 @@
       <c r="E53" s="22">
         <v>3.16</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="37">
         <v>0.25</v>
       </c>
-      <c r="G53" s="39">
+      <c r="G53" s="38">
         <f t="shared" si="1"/>
         <v>2.91</v>
       </c>
@@ -16638,7 +16679,7 @@
       <c r="I53" s="14">
         <v>5.08</v>
       </c>
-      <c r="J53" s="43"/>
+      <c r="J53" s="42"/>
       <c r="K53" s="18">
         <v>0.65</v>
       </c>
@@ -16656,9 +16697,9 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="42">
+        <v>55</v>
+      </c>
+      <c r="B54" s="41">
         <v>39934</v>
       </c>
       <c r="C54" s="10">
@@ -16670,10 +16711,10 @@
       <c r="E54" s="22">
         <v>3.47</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="37">
         <v>0.25</v>
       </c>
-      <c r="G54" s="39">
+      <c r="G54" s="38">
         <f t="shared" si="1"/>
         <v>3.22</v>
       </c>
@@ -16683,7 +16724,7 @@
       <c r="I54" s="14">
         <v>4.29</v>
       </c>
-      <c r="J54" s="43"/>
+      <c r="J54" s="42"/>
       <c r="K54" s="18">
         <v>0.73</v>
       </c>
@@ -16701,9 +16742,9 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="42">
+        <v>56</v>
+      </c>
+      <c r="B55" s="41">
         <v>39965</v>
       </c>
       <c r="C55" s="10">
@@ -16715,10 +16756,10 @@
       <c r="E55" s="22">
         <v>3.53</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="37">
         <v>0.25</v>
       </c>
-      <c r="G55" s="39">
+      <c r="G55" s="38">
         <f t="shared" si="1"/>
         <v>3.28</v>
       </c>
@@ -16728,7 +16769,7 @@
       <c r="I55" s="14">
         <v>3.64</v>
       </c>
-      <c r="J55" s="43"/>
+      <c r="J55" s="42"/>
       <c r="K55" s="19">
         <v>0.8</v>
       </c>
@@ -16746,9 +16787,9 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="42">
+        <v>57</v>
+      </c>
+      <c r="B56" s="41">
         <v>39995</v>
       </c>
       <c r="C56" s="10">
@@ -16760,10 +16801,10 @@
       <c r="E56" s="22">
         <v>3.52</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="37">
         <v>0.25</v>
       </c>
-      <c r="G56" s="39">
+      <c r="G56" s="38">
         <f t="shared" si="1"/>
         <v>3.27</v>
       </c>
@@ -16793,9 +16834,9 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="42">
+        <v>58</v>
+      </c>
+      <c r="B57" s="41">
         <v>40026</v>
       </c>
       <c r="C57" s="10">
@@ -16807,10 +16848,10 @@
       <c r="E57" s="22">
         <v>3.4</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="37">
         <v>0.25</v>
       </c>
-      <c r="G57" s="39">
+      <c r="G57" s="38">
         <f t="shared" si="1"/>
         <v>3.15</v>
       </c>
@@ -16840,9 +16881,9 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="42">
+        <v>59</v>
+      </c>
+      <c r="B58" s="41">
         <v>40057</v>
       </c>
       <c r="C58" s="10">
@@ -16854,10 +16895,10 @@
       <c r="E58" s="22">
         <v>3.31</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="37">
         <v>0.25</v>
       </c>
-      <c r="G58" s="39">
+      <c r="G58" s="38">
         <f t="shared" si="1"/>
         <v>3.06</v>
       </c>
@@ -16887,9 +16928,9 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="42">
+        <v>60</v>
+      </c>
+      <c r="B59" s="41">
         <v>40087</v>
       </c>
       <c r="C59" s="10">
@@ -16901,10 +16942,10 @@
       <c r="E59" s="22">
         <v>3.41</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="37">
         <v>0.25</v>
       </c>
-      <c r="G59" s="39">
+      <c r="G59" s="38">
         <f t="shared" si="1"/>
         <v>3.16</v>
       </c>
@@ -16934,9 +16975,9 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="42">
+        <v>61</v>
+      </c>
+      <c r="B60" s="41">
         <v>40118</v>
       </c>
       <c r="C60" s="10">
@@ -16948,10 +16989,10 @@
       <c r="E60" s="22">
         <v>3.21</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="37">
         <v>0.25</v>
       </c>
-      <c r="G60" s="39">
+      <c r="G60" s="38">
         <f t="shared" si="1"/>
         <v>2.96</v>
       </c>
@@ -16981,9 +17022,9 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="42">
+        <v>62</v>
+      </c>
+      <c r="B61" s="41">
         <v>40148</v>
       </c>
       <c r="C61" s="10">
@@ -16995,10 +17036,10 @@
       <c r="E61" s="22">
         <v>3.85</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="37">
         <v>0.25</v>
       </c>
-      <c r="G61" s="39">
+      <c r="G61" s="38">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
@@ -17028,9 +17069,9 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="42">
+        <v>63</v>
+      </c>
+      <c r="B62" s="41">
         <v>40179</v>
       </c>
       <c r="C62" s="10">
@@ -17042,10 +17083,10 @@
       <c r="E62" s="22">
         <v>3.63</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="37">
         <v>0.25</v>
       </c>
-      <c r="G62" s="39">
+      <c r="G62" s="38">
         <f t="shared" si="1"/>
         <v>3.38</v>
       </c>
@@ -17075,9 +17116,9 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="42">
+        <v>52</v>
+      </c>
+      <c r="B63" s="41">
         <v>40210</v>
       </c>
       <c r="C63" s="10">
@@ -17089,10 +17130,10 @@
       <c r="E63" s="22">
         <v>3.61</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="37">
         <v>0.25</v>
       </c>
-      <c r="G63" s="39">
+      <c r="G63" s="38">
         <f t="shared" si="1"/>
         <v>3.36</v>
       </c>
@@ -17122,9 +17163,9 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="42">
+        <v>53</v>
+      </c>
+      <c r="B64" s="41">
         <v>40238</v>
       </c>
       <c r="C64" s="10">
@@ -17136,10 +17177,10 @@
       <c r="E64" s="22">
         <v>3.84</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="37">
         <v>0.25</v>
       </c>
-      <c r="G64" s="39">
+      <c r="G64" s="38">
         <f t="shared" si="1"/>
         <v>3.59</v>
       </c>
@@ -17169,9 +17210,9 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="42">
+        <v>54</v>
+      </c>
+      <c r="B65" s="41">
         <v>40269</v>
       </c>
       <c r="C65" s="10">
@@ -17183,10 +17224,10 @@
       <c r="E65" s="22">
         <v>3.69</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="37">
         <v>0.25</v>
       </c>
-      <c r="G65" s="39">
+      <c r="G65" s="38">
         <f t="shared" si="1"/>
         <v>3.44</v>
       </c>
@@ -17216,9 +17257,9 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="42">
+        <v>55</v>
+      </c>
+      <c r="B66" s="41">
         <v>40299</v>
       </c>
       <c r="C66" s="10">
@@ -17230,10 +17271,10 @@
       <c r="E66" s="22">
         <v>3.31</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="37">
         <v>0.25</v>
       </c>
-      <c r="G66" s="39">
+      <c r="G66" s="38">
         <f t="shared" ref="G66:G97" si="2">E66-F66</f>
         <v>3.06</v>
       </c>
@@ -17263,9 +17304,9 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="42">
+        <v>56</v>
+      </c>
+      <c r="B67" s="41">
         <v>40330</v>
       </c>
       <c r="C67" s="10">
@@ -17277,10 +17318,10 @@
       <c r="E67" s="22">
         <v>2.97</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="37">
         <v>0.25</v>
       </c>
-      <c r="G67" s="39">
+      <c r="G67" s="38">
         <f t="shared" si="2"/>
         <v>2.72</v>
       </c>
@@ -17310,9 +17351,9 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="42">
+        <v>57</v>
+      </c>
+      <c r="B68" s="41">
         <v>40360</v>
       </c>
       <c r="C68" s="10">
@@ -17324,10 +17365,10 @@
       <c r="E68" s="22">
         <v>2.94</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="37">
         <v>0.25</v>
       </c>
-      <c r="G68" s="39">
+      <c r="G68" s="38">
         <f t="shared" si="2"/>
         <v>2.69</v>
       </c>
@@ -17357,9 +17398,9 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="42">
+        <v>58</v>
+      </c>
+      <c r="B69" s="41">
         <v>40391</v>
       </c>
       <c r="C69" s="10">
@@ -17371,10 +17412,10 @@
       <c r="E69" s="22">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="37">
         <v>0.25</v>
       </c>
-      <c r="G69" s="39">
+      <c r="G69" s="38">
         <f t="shared" si="2"/>
         <v>2.2200000000000002</v>
       </c>
@@ -17404,9 +17445,9 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="42">
+        <v>59</v>
+      </c>
+      <c r="B70" s="41">
         <v>40422</v>
       </c>
       <c r="C70" s="10">
@@ -17418,10 +17459,10 @@
       <c r="E70" s="22">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="37">
         <v>0.25</v>
       </c>
-      <c r="G70" s="39">
+      <c r="G70" s="38">
         <f t="shared" si="2"/>
         <v>2.2799999999999998</v>
       </c>
@@ -17451,9 +17492,9 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="42">
+        <v>60</v>
+      </c>
+      <c r="B71" s="41">
         <v>40452</v>
       </c>
       <c r="C71" s="10">
@@ -17465,10 +17506,10 @@
       <c r="E71" s="22">
         <v>2.63</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="37">
         <v>0.25</v>
       </c>
-      <c r="G71" s="39">
+      <c r="G71" s="38">
         <f t="shared" si="2"/>
         <v>2.38</v>
       </c>
@@ -17498,9 +17539,9 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="42">
+        <v>61</v>
+      </c>
+      <c r="B72" s="41">
         <v>40483</v>
       </c>
       <c r="C72" s="10">
@@ -17512,10 +17553,10 @@
       <c r="E72" s="22">
         <v>2.81</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="37">
         <v>0.25</v>
       </c>
-      <c r="G72" s="39">
+      <c r="G72" s="38">
         <f t="shared" si="2"/>
         <v>2.56</v>
       </c>
@@ -17545,9 +17586,9 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="42">
+        <v>62</v>
+      </c>
+      <c r="B73" s="41">
         <v>40513</v>
       </c>
       <c r="C73" s="10">
@@ -17559,10 +17600,10 @@
       <c r="E73" s="22">
         <v>3.3</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="37">
         <v>0.25</v>
       </c>
-      <c r="G73" s="39">
+      <c r="G73" s="38">
         <f t="shared" si="2"/>
         <v>3.05</v>
       </c>
@@ -17592,9 +17633,9 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="42">
+        <v>63</v>
+      </c>
+      <c r="B74" s="41">
         <v>40544</v>
       </c>
       <c r="C74" s="10">
@@ -17606,10 +17647,10 @@
       <c r="E74" s="22">
         <v>3.42</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="37">
         <v>0.25</v>
       </c>
-      <c r="G74" s="39">
+      <c r="G74" s="38">
         <f t="shared" si="2"/>
         <v>3.17</v>
       </c>
@@ -17639,9 +17680,9 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" s="42">
+        <v>52</v>
+      </c>
+      <c r="B75" s="41">
         <v>40575</v>
       </c>
       <c r="C75" s="10">
@@ -17653,10 +17694,10 @@
       <c r="E75" s="22">
         <v>3.42</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="37">
         <v>0.25</v>
       </c>
-      <c r="G75" s="39">
+      <c r="G75" s="38">
         <f t="shared" si="2"/>
         <v>3.17</v>
       </c>
@@ -17686,9 +17727,9 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B76" s="42">
+        <v>53</v>
+      </c>
+      <c r="B76" s="41">
         <v>40603</v>
       </c>
       <c r="C76" s="10">
@@ -17700,10 +17741,10 @@
       <c r="E76" s="22">
         <v>3.47</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="37">
         <v>0.25</v>
       </c>
-      <c r="G76" s="39">
+      <c r="G76" s="38">
         <f t="shared" si="2"/>
         <v>3.22</v>
       </c>
@@ -17733,9 +17774,9 @@
     </row>
     <row r="77" spans="1:24">
       <c r="A77" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="42">
+        <v>54</v>
+      </c>
+      <c r="B77" s="41">
         <v>40634</v>
       </c>
       <c r="C77" s="10">
@@ -17747,10 +17788,10 @@
       <c r="E77" s="22">
         <v>3.32</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="37">
         <v>0.25</v>
       </c>
-      <c r="G77" s="39">
+      <c r="G77" s="38">
         <f t="shared" si="2"/>
         <v>3.07</v>
       </c>
@@ -17780,9 +17821,9 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="42">
+        <v>55</v>
+      </c>
+      <c r="B78" s="41">
         <v>40664</v>
       </c>
       <c r="C78" s="10">
@@ -17794,10 +17835,10 @@
       <c r="E78" s="22">
         <v>3.05</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="37">
         <v>0.25</v>
       </c>
-      <c r="G78" s="39">
+      <c r="G78" s="38">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
@@ -17827,9 +17868,9 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="42">
+        <v>56</v>
+      </c>
+      <c r="B79" s="41">
         <v>40695</v>
       </c>
       <c r="C79" s="10">
@@ -17841,10 +17882,10 @@
       <c r="E79" s="22">
         <v>3.18</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="37">
         <v>0.25</v>
       </c>
-      <c r="G79" s="39">
+      <c r="G79" s="38">
         <f t="shared" si="2"/>
         <v>2.93</v>
       </c>
@@ -17874,9 +17915,9 @@
     </row>
     <row r="80" spans="1:24">
       <c r="A80" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="42">
+        <v>57</v>
+      </c>
+      <c r="B80" s="41">
         <v>40725</v>
       </c>
       <c r="C80" s="10">
@@ -17888,10 +17929,10 @@
       <c r="E80" s="22">
         <v>2.82</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="37">
         <v>0.25</v>
       </c>
-      <c r="G80" s="39">
+      <c r="G80" s="38">
         <f t="shared" si="2"/>
         <v>2.57</v>
       </c>
@@ -17921,9 +17962,9 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="42">
+        <v>58</v>
+      </c>
+      <c r="B81" s="41">
         <v>40756</v>
       </c>
       <c r="C81" s="10">
@@ -17935,10 +17976,10 @@
       <c r="E81" s="22">
         <v>2.23</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="37">
         <v>0.25</v>
       </c>
-      <c r="G81" s="39">
+      <c r="G81" s="38">
         <f t="shared" si="2"/>
         <v>1.98</v>
       </c>
@@ -17968,9 +18009,9 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="42">
+        <v>59</v>
+      </c>
+      <c r="B82" s="41">
         <v>40787</v>
       </c>
       <c r="C82" s="10">
@@ -17982,10 +18023,10 @@
       <c r="E82" s="22">
         <v>1.92</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="37">
         <v>0.25</v>
       </c>
-      <c r="G82" s="39">
+      <c r="G82" s="38">
         <f t="shared" si="2"/>
         <v>1.67</v>
       </c>
@@ -18015,9 +18056,9 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" s="42">
+        <v>60</v>
+      </c>
+      <c r="B83" s="41">
         <v>40817</v>
       </c>
       <c r="C83" s="10">
@@ -18029,10 +18070,10 @@
       <c r="E83" s="22">
         <v>2.17</v>
       </c>
-      <c r="F83" s="38">
+      <c r="F83" s="37">
         <v>0.25</v>
       </c>
-      <c r="G83" s="39">
+      <c r="G83" s="38">
         <f t="shared" si="2"/>
         <v>1.92</v>
       </c>
@@ -18061,9 +18102,9 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" s="42">
+        <v>61</v>
+      </c>
+      <c r="B84" s="41">
         <v>40848</v>
       </c>
       <c r="C84" s="10">
@@ -18075,10 +18116,10 @@
       <c r="E84" s="22">
         <v>2.08</v>
       </c>
-      <c r="F84" s="38">
+      <c r="F84" s="37">
         <v>0.25</v>
       </c>
-      <c r="G84" s="39">
+      <c r="G84" s="38">
         <f t="shared" si="2"/>
         <v>1.83</v>
       </c>
@@ -18107,9 +18148,9 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B85" s="42">
+        <v>62</v>
+      </c>
+      <c r="B85" s="41">
         <v>40878</v>
       </c>
       <c r="C85" s="10">
@@ -18121,10 +18162,10 @@
       <c r="E85" s="22">
         <v>1.89</v>
       </c>
-      <c r="F85" s="38">
+      <c r="F85" s="37">
         <v>0.25</v>
       </c>
-      <c r="G85" s="39">
+      <c r="G85" s="38">
         <f t="shared" si="2"/>
         <v>1.64</v>
       </c>
@@ -18153,9 +18194,9 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" s="42">
+        <v>63</v>
+      </c>
+      <c r="B86" s="41">
         <v>40909</v>
       </c>
       <c r="C86" s="10">
@@ -18167,10 +18208,10 @@
       <c r="E86" s="22">
         <v>1.83</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="37">
         <v>0.25</v>
       </c>
-      <c r="G86" s="39">
+      <c r="G86" s="38">
         <f t="shared" si="2"/>
         <v>1.58</v>
       </c>
@@ -18199,9 +18240,9 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87" s="42">
+        <v>52</v>
+      </c>
+      <c r="B87" s="41">
         <v>40940</v>
       </c>
       <c r="C87" s="10">
@@ -18213,10 +18254,10 @@
       <c r="E87" s="22">
         <v>1.98</v>
       </c>
-      <c r="F87" s="38">
+      <c r="F87" s="37">
         <v>0.25</v>
       </c>
-      <c r="G87" s="39">
+      <c r="G87" s="38">
         <f t="shared" si="2"/>
         <v>1.73</v>
       </c>
@@ -18245,9 +18286,9 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" s="42">
+        <v>53</v>
+      </c>
+      <c r="B88" s="41">
         <v>40969</v>
       </c>
       <c r="C88" s="10">
@@ -18259,10 +18300,10 @@
       <c r="E88" s="22">
         <v>2.23</v>
       </c>
-      <c r="F88" s="38">
+      <c r="F88" s="37">
         <v>0.25</v>
       </c>
-      <c r="G88" s="39">
+      <c r="G88" s="38">
         <f t="shared" si="2"/>
         <v>1.98</v>
       </c>
@@ -18291,9 +18332,9 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B89" s="42">
+        <v>54</v>
+      </c>
+      <c r="B89" s="41">
         <v>41000</v>
       </c>
       <c r="C89" s="10">
@@ -18305,10 +18346,10 @@
       <c r="E89" s="22">
         <v>1.95</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="37">
         <v>0.25</v>
       </c>
-      <c r="G89" s="39">
+      <c r="G89" s="38">
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
@@ -18337,9 +18378,9 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="42">
+        <v>55</v>
+      </c>
+      <c r="B90" s="41">
         <v>41030</v>
       </c>
       <c r="C90" s="10">
@@ -18351,10 +18392,10 @@
       <c r="E90" s="22">
         <v>1.59</v>
       </c>
-      <c r="F90" s="38">
+      <c r="F90" s="37">
         <v>0.25</v>
       </c>
-      <c r="G90" s="39">
+      <c r="G90" s="38">
         <f t="shared" si="2"/>
         <v>1.34</v>
       </c>
@@ -18383,9 +18424,9 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B91" s="42">
+        <v>56</v>
+      </c>
+      <c r="B91" s="41">
         <v>41061</v>
       </c>
       <c r="C91" s="10">
@@ -18397,10 +18438,10 @@
       <c r="E91" s="22">
         <v>1.67</v>
       </c>
-      <c r="F91" s="38">
+      <c r="F91" s="37">
         <v>0.25</v>
       </c>
-      <c r="G91" s="39">
+      <c r="G91" s="38">
         <f t="shared" si="2"/>
         <v>1.42</v>
       </c>
@@ -18429,9 +18470,9 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="42">
+        <v>57</v>
+      </c>
+      <c r="B92" s="41">
         <v>41091</v>
       </c>
       <c r="C92" s="10">
@@ -18443,10 +18484,10 @@
       <c r="E92" s="22">
         <v>1.51</v>
       </c>
-      <c r="F92" s="38">
+      <c r="F92" s="37">
         <v>0.25</v>
       </c>
-      <c r="G92" s="39">
+      <c r="G92" s="38">
         <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
@@ -18475,9 +18516,9 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B93" s="42">
+        <v>58</v>
+      </c>
+      <c r="B93" s="41">
         <v>41122</v>
       </c>
       <c r="C93" s="10">
@@ -18489,10 +18530,10 @@
       <c r="E93" s="22">
         <v>1.57</v>
       </c>
-      <c r="F93" s="38">
+      <c r="F93" s="37">
         <v>0.25</v>
       </c>
-      <c r="G93" s="39">
+      <c r="G93" s="38">
         <f t="shared" si="2"/>
         <v>1.32</v>
       </c>
@@ -18521,9 +18562,9 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="42">
+        <v>59</v>
+      </c>
+      <c r="B94" s="41">
         <v>41153</v>
       </c>
       <c r="C94" s="10">
@@ -18535,10 +18576,10 @@
       <c r="E94" s="22">
         <v>1.65</v>
       </c>
-      <c r="F94" s="38">
+      <c r="F94" s="37">
         <v>0.25</v>
       </c>
-      <c r="G94" s="39">
+      <c r="G94" s="38">
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
@@ -18567,9 +18608,9 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B95" s="42">
+        <v>60</v>
+      </c>
+      <c r="B95" s="41">
         <v>41183</v>
       </c>
       <c r="C95" s="10">
@@ -18581,10 +18622,10 @@
       <c r="E95" s="22">
         <v>1.72</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="37">
         <v>0.25</v>
       </c>
-      <c r="G95" s="39">
+      <c r="G95" s="38">
         <f t="shared" si="2"/>
         <v>1.47</v>
       </c>
@@ -18613,24 +18654,24 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96" s="42">
+        <v>61</v>
+      </c>
+      <c r="B96" s="41">
         <v>41214</v>
       </c>
       <c r="C96" s="10">
         <v>82.45</v>
       </c>
-      <c r="D96" s="37">
+      <c r="D96" s="36">
         <v>51.7</v>
       </c>
       <c r="E96" s="22">
         <v>1.62</v>
       </c>
-      <c r="F96" s="38">
+      <c r="F96" s="37">
         <v>0.25</v>
       </c>
-      <c r="G96" s="39">
+      <c r="G96" s="38">
         <f t="shared" si="2"/>
         <v>1.37</v>
       </c>
@@ -18659,24 +18700,24 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B97" s="42">
+        <v>62</v>
+      </c>
+      <c r="B97" s="41">
         <v>41244</v>
       </c>
       <c r="C97" s="10">
         <v>86.74</v>
       </c>
-      <c r="D97" s="37">
+      <c r="D97" s="36">
         <v>50.7</v>
       </c>
       <c r="E97" s="22">
         <v>1.78</v>
       </c>
-      <c r="F97" s="38">
+      <c r="F97" s="37">
         <v>0.25</v>
       </c>
-      <c r="G97" s="39">
+      <c r="G97" s="38">
         <f t="shared" si="2"/>
         <v>1.53</v>
       </c>
@@ -18705,24 +18746,24 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" s="42">
+        <v>63</v>
+      </c>
+      <c r="B98" s="41">
         <v>41275</v>
       </c>
       <c r="C98" s="10">
         <v>91.72</v>
       </c>
-      <c r="D98" s="37">
+      <c r="D98" s="36">
         <v>53.1</v>
       </c>
       <c r="E98" s="22">
         <v>2.02</v>
       </c>
-      <c r="F98" s="38">
+      <c r="F98" s="37">
         <v>0.25</v>
       </c>
-      <c r="G98" s="39">
+      <c r="G98" s="38">
         <f t="shared" ref="G98:G129" si="3">E98-F98</f>
         <v>1.77</v>
       </c>
@@ -18751,24 +18792,24 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B99" s="42">
+        <v>52</v>
+      </c>
+      <c r="B99" s="41">
         <v>41306</v>
       </c>
       <c r="C99" s="10">
         <v>92.53</v>
       </c>
-      <c r="D99" s="37">
+      <c r="D99" s="36">
         <v>54.2</v>
       </c>
       <c r="E99" s="22">
         <v>1.89</v>
       </c>
-      <c r="F99" s="38">
+      <c r="F99" s="37">
         <v>0.25</v>
       </c>
-      <c r="G99" s="39">
+      <c r="G99" s="38">
         <f t="shared" si="3"/>
         <v>1.64</v>
       </c>
@@ -18797,24 +18838,24 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B100" s="42">
+        <v>53</v>
+      </c>
+      <c r="B100" s="41">
         <v>41334</v>
       </c>
       <c r="C100" s="10">
         <v>94.19</v>
       </c>
-      <c r="D100" s="37">
+      <c r="D100" s="36">
         <v>51.3</v>
       </c>
       <c r="E100" s="22">
         <v>1.87</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="37">
         <v>0.25</v>
       </c>
-      <c r="G100" s="39">
+      <c r="G100" s="38">
         <f t="shared" si="3"/>
         <v>1.62</v>
       </c>
@@ -18843,24 +18884,24 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="42">
+        <v>54</v>
+      </c>
+      <c r="B101" s="41">
         <v>41365</v>
       </c>
       <c r="C101" s="10">
         <v>97.41</v>
       </c>
-      <c r="D101" s="37">
+      <c r="D101" s="36">
         <v>50.7</v>
       </c>
       <c r="E101" s="22">
         <v>1.7</v>
       </c>
-      <c r="F101" s="38">
+      <c r="F101" s="37">
         <v>0.25</v>
       </c>
-      <c r="G101" s="39">
+      <c r="G101" s="38">
         <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
@@ -18889,24 +18930,24 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102" s="42">
+        <v>55</v>
+      </c>
+      <c r="B102" s="41">
         <v>41395</v>
       </c>
       <c r="C102" s="10">
         <v>100.46</v>
       </c>
-      <c r="D102" s="37">
+      <c r="D102" s="36">
         <v>49</v>
       </c>
       <c r="E102" s="22">
         <v>2.16</v>
       </c>
-      <c r="F102" s="38">
+      <c r="F102" s="37">
         <v>0.25</v>
       </c>
-      <c r="G102" s="39">
+      <c r="G102" s="38">
         <f t="shared" si="3"/>
         <v>1.9100000000000001</v>
       </c>
@@ -18935,24 +18976,24 @@
     </row>
     <row r="103" spans="1:24">
       <c r="A103" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103" s="42">
+        <v>56</v>
+      </c>
+      <c r="B103" s="41">
         <v>41426</v>
       </c>
       <c r="C103" s="10">
         <v>99.12</v>
       </c>
-      <c r="D103" s="37">
+      <c r="D103" s="36">
         <v>50.9</v>
       </c>
       <c r="E103" s="22">
         <v>2.52</v>
       </c>
-      <c r="F103" s="38">
+      <c r="F103" s="37">
         <v>0.25</v>
       </c>
-      <c r="G103" s="39">
+      <c r="G103" s="38">
         <f t="shared" si="3"/>
         <v>2.27</v>
       </c>
@@ -18981,24 +19022,24 @@
     </row>
     <row r="104" spans="1:24">
       <c r="A104" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" s="42">
+        <v>57</v>
+      </c>
+      <c r="B104" s="41">
         <v>41456</v>
       </c>
       <c r="C104" s="10">
         <v>97.86</v>
       </c>
-      <c r="D104" s="37">
+      <c r="D104" s="36">
         <v>55.4</v>
       </c>
       <c r="E104" s="22">
         <v>2.6</v>
       </c>
-      <c r="F104" s="38">
+      <c r="F104" s="37">
         <v>0.25</v>
       </c>
-      <c r="G104" s="39">
+      <c r="G104" s="38">
         <f t="shared" si="3"/>
         <v>2.35</v>
       </c>
@@ -19027,24 +19068,24 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B105" s="42">
+        <v>58</v>
+      </c>
+      <c r="B105" s="41">
         <v>41487</v>
       </c>
       <c r="C105" s="10">
         <v>98.15</v>
       </c>
-      <c r="D105" s="37">
+      <c r="D105" s="36">
         <v>55.7</v>
       </c>
       <c r="E105" s="22">
         <v>2.78</v>
       </c>
-      <c r="F105" s="38">
+      <c r="F105" s="37">
         <v>0.25</v>
       </c>
-      <c r="G105" s="39">
+      <c r="G105" s="38">
         <f t="shared" si="3"/>
         <v>2.5299999999999998</v>
       </c>
@@ -19073,24 +19114,24 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B106" s="42">
+        <v>59</v>
+      </c>
+      <c r="B106" s="41">
         <v>41518</v>
       </c>
       <c r="C106" s="10">
         <v>98.21</v>
       </c>
-      <c r="D106" s="37">
+      <c r="D106" s="36">
         <v>56.2</v>
       </c>
       <c r="E106" s="22">
         <v>2.64</v>
       </c>
-      <c r="F106" s="38">
+      <c r="F106" s="37">
         <v>0.25</v>
       </c>
-      <c r="G106" s="39">
+      <c r="G106" s="38">
         <f t="shared" si="3"/>
         <v>2.39</v>
       </c>
@@ -19119,24 +19160,24 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B107" s="42">
+        <v>60</v>
+      </c>
+      <c r="B107" s="41">
         <v>41548</v>
       </c>
       <c r="C107" s="10">
         <v>98.35</v>
       </c>
-      <c r="D107" s="37">
+      <c r="D107" s="36">
         <v>56.4</v>
       </c>
       <c r="E107" s="22">
         <v>2.57</v>
       </c>
-      <c r="F107" s="38">
+      <c r="F107" s="37">
         <v>0.25</v>
       </c>
-      <c r="G107" s="39">
+      <c r="G107" s="38">
         <f t="shared" si="3"/>
         <v>2.3199999999999998</v>
       </c>
@@ -19165,24 +19206,24 @@
     </row>
     <row r="108" spans="1:24">
       <c r="A108" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B108" s="42">
+        <v>61</v>
+      </c>
+      <c r="B108" s="41">
         <v>41579</v>
       </c>
       <c r="C108" s="10">
         <v>102.41</v>
       </c>
-      <c r="D108" s="37">
+      <c r="D108" s="36">
         <v>57.3</v>
       </c>
       <c r="E108" s="22">
         <v>2.75</v>
       </c>
-      <c r="F108" s="38">
+      <c r="F108" s="37">
         <v>0.25</v>
       </c>
-      <c r="G108" s="39">
+      <c r="G108" s="38">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
@@ -19211,24 +19252,24 @@
     </row>
     <row r="109" spans="1:24">
       <c r="A109" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B109" s="42">
+        <v>62</v>
+      </c>
+      <c r="B109" s="41">
         <v>41609</v>
       </c>
       <c r="C109" s="10">
         <v>105.3</v>
       </c>
-      <c r="D109" s="44">
+      <c r="D109" s="43">
         <v>57</v>
       </c>
       <c r="E109" s="22">
         <v>3.04</v>
       </c>
-      <c r="F109" s="38">
+      <c r="F109" s="37">
         <v>0.25</v>
       </c>
-      <c r="G109" s="39">
+      <c r="G109" s="38">
         <f t="shared" si="3"/>
         <v>2.79</v>
       </c>
@@ -19257,24 +19298,24 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="42">
+        <v>63</v>
+      </c>
+      <c r="B110" s="41">
         <v>41640</v>
       </c>
       <c r="C110" s="10">
         <v>102.04</v>
       </c>
-      <c r="D110" s="44">
+      <c r="D110" s="43">
         <v>51.3</v>
       </c>
       <c r="E110" s="22">
         <v>2.67</v>
       </c>
-      <c r="F110" s="38">
+      <c r="F110" s="37">
         <v>0.25</v>
       </c>
-      <c r="G110" s="39">
+      <c r="G110" s="38">
         <f t="shared" si="3"/>
         <v>2.42</v>
       </c>
@@ -19303,24 +19344,24 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" s="42">
+        <v>52</v>
+      </c>
+      <c r="B111" s="41">
         <v>41671</v>
       </c>
       <c r="C111" s="10">
         <v>101.77</v>
       </c>
-      <c r="D111" s="44">
+      <c r="D111" s="43">
         <v>53.2</v>
       </c>
       <c r="E111" s="22">
         <v>2.66</v>
       </c>
-      <c r="F111" s="38">
+      <c r="F111" s="37">
         <v>0.25</v>
       </c>
-      <c r="G111" s="39">
+      <c r="G111" s="38">
         <f t="shared" si="3"/>
         <v>2.41</v>
       </c>
@@ -19349,24 +19390,24 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B112" s="42">
+        <v>53</v>
+      </c>
+      <c r="B112" s="41">
         <v>41699</v>
       </c>
       <c r="C112" s="10">
         <v>103.22</v>
       </c>
-      <c r="D112" s="44">
+      <c r="D112" s="43">
         <v>53.7</v>
       </c>
       <c r="E112" s="22">
         <v>2.73</v>
       </c>
-      <c r="F112" s="38">
+      <c r="F112" s="37">
         <v>0.25</v>
       </c>
-      <c r="G112" s="39">
+      <c r="G112" s="38">
         <f t="shared" si="3"/>
         <v>2.48</v>
       </c>
@@ -19395,24 +19436,24 @@
     </row>
     <row r="113" spans="1:24">
       <c r="A113" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B113" s="42">
+        <v>54</v>
+      </c>
+      <c r="B113" s="41">
         <v>41730</v>
       </c>
       <c r="C113" s="10">
         <v>102.23</v>
       </c>
-      <c r="D113" s="44">
+      <c r="D113" s="43">
         <v>54.9</v>
       </c>
       <c r="E113" s="22">
         <v>2.67</v>
       </c>
-      <c r="F113" s="38">
+      <c r="F113" s="37">
         <v>0.25</v>
       </c>
-      <c r="G113" s="39">
+      <c r="G113" s="38">
         <f t="shared" si="3"/>
         <v>2.42</v>
       </c>
@@ -19443,24 +19484,24 @@
     </row>
     <row r="114" spans="1:24">
       <c r="A114" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B114" s="42">
+        <v>55</v>
+      </c>
+      <c r="B114" s="41">
         <v>41760</v>
       </c>
       <c r="C114" s="10">
         <v>101.77</v>
       </c>
-      <c r="D114" s="44">
+      <c r="D114" s="43">
         <v>55.4</v>
       </c>
       <c r="E114" s="22">
         <v>2.48</v>
       </c>
-      <c r="F114" s="38">
+      <c r="F114" s="37">
         <v>0.25</v>
       </c>
-      <c r="G114" s="39">
+      <c r="G114" s="38">
         <f t="shared" si="3"/>
         <v>2.23</v>
       </c>
@@ -19491,24 +19532,24 @@
     </row>
     <row r="115" spans="1:24">
       <c r="A115" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B115" s="42">
+        <v>56</v>
+      </c>
+      <c r="B115" s="41">
         <v>41791</v>
       </c>
       <c r="C115" s="10">
         <v>101.32</v>
       </c>
-      <c r="D115" s="44">
+      <c r="D115" s="43">
         <v>55.3</v>
       </c>
       <c r="E115" s="22">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F115" s="38">
+      <c r="F115" s="37">
         <v>0.25</v>
       </c>
-      <c r="G115" s="39">
+      <c r="G115" s="38">
         <f t="shared" si="3"/>
         <v>2.2799999999999998</v>
       </c>
@@ -19539,24 +19580,24 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116" s="42">
+        <v>57</v>
+      </c>
+      <c r="B116" s="41">
         <v>41821</v>
       </c>
       <c r="C116" s="10">
         <v>102.78</v>
       </c>
-      <c r="D116" s="44">
+      <c r="D116" s="43">
         <v>57.1</v>
       </c>
       <c r="E116" s="22">
         <v>2.58</v>
       </c>
-      <c r="F116" s="38">
+      <c r="F116" s="37">
         <v>0.25</v>
       </c>
-      <c r="G116" s="39">
+      <c r="G116" s="38">
         <f t="shared" si="3"/>
         <v>2.33</v>
       </c>
@@ -19587,24 +19628,24 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="42">
+        <v>58</v>
+      </c>
+      <c r="B117" s="41">
         <v>41852</v>
       </c>
       <c r="C117" s="10">
         <v>104.08</v>
       </c>
-      <c r="D117" s="44">
+      <c r="D117" s="43">
         <v>59</v>
       </c>
       <c r="E117" s="22">
         <v>2.35</v>
       </c>
-      <c r="F117" s="38">
+      <c r="F117" s="37">
         <v>0.25</v>
       </c>
-      <c r="G117" s="39">
+      <c r="G117" s="38">
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
@@ -19635,24 +19676,24 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B118" s="42">
+        <v>59</v>
+      </c>
+      <c r="B118" s="41">
         <v>41883</v>
       </c>
       <c r="C118" s="10">
         <v>109.63</v>
       </c>
-      <c r="D118" s="44">
+      <c r="D118" s="43">
         <v>56.6</v>
       </c>
       <c r="E118" s="22">
         <v>2.52</v>
       </c>
-      <c r="F118" s="38">
+      <c r="F118" s="37">
         <v>0.25</v>
       </c>
-      <c r="G118" s="39">
+      <c r="G118" s="38">
         <f t="shared" si="3"/>
         <v>2.27</v>
       </c>
@@ -19683,24 +19724,24 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B119" s="42">
+        <v>60</v>
+      </c>
+      <c r="B119" s="41">
         <v>41913</v>
       </c>
       <c r="C119" s="10">
         <v>112.31</v>
       </c>
-      <c r="D119" s="44">
+      <c r="D119" s="43">
         <v>59</v>
       </c>
       <c r="E119" s="22">
         <v>2.35</v>
       </c>
-      <c r="F119" s="38">
+      <c r="F119" s="37">
         <v>0.25</v>
       </c>
-      <c r="G119" s="39">
+      <c r="G119" s="38">
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
@@ -19731,24 +19772,24 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B120" s="42">
+        <v>61</v>
+      </c>
+      <c r="B120" s="41">
         <v>41944</v>
       </c>
       <c r="C120" s="10">
         <v>118.56</v>
       </c>
-      <c r="D120" s="44">
+      <c r="D120" s="43">
         <v>58.7</v>
       </c>
       <c r="E120" s="22">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F120" s="38">
+      <c r="F120" s="37">
         <v>0.25</v>
       </c>
-      <c r="G120" s="39">
+      <c r="G120" s="38">
         <f t="shared" si="3"/>
         <v>1.9300000000000002</v>
       </c>
@@ -19779,24 +19820,24 @@
     </row>
     <row r="121" spans="1:24">
       <c r="A121" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B121" s="42">
+        <v>62</v>
+      </c>
+      <c r="B121" s="41">
         <v>41974</v>
       </c>
       <c r="C121" s="10">
         <v>119.71</v>
       </c>
-      <c r="D121" s="44">
+      <c r="D121" s="43">
         <v>55.5</v>
       </c>
       <c r="E121" s="22">
         <v>2.17</v>
       </c>
-      <c r="F121" s="38">
+      <c r="F121" s="37">
         <v>0.25</v>
       </c>
-      <c r="G121" s="39">
+      <c r="G121" s="38">
         <f t="shared" si="3"/>
         <v>1.92</v>
       </c>
@@ -19828,24 +19869,24 @@
     </row>
     <row r="122" spans="1:24">
       <c r="A122" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" s="42">
+        <v>63</v>
+      </c>
+      <c r="B122" s="41">
         <v>42005</v>
       </c>
       <c r="C122" s="10">
         <v>117.51</v>
       </c>
-      <c r="D122" s="44">
+      <c r="D122" s="43">
         <v>53.5</v>
       </c>
       <c r="E122" s="22">
         <v>1.68</v>
       </c>
-      <c r="F122" s="38">
+      <c r="F122" s="37">
         <v>0.25</v>
       </c>
-      <c r="G122" s="39">
+      <c r="G122" s="38">
         <f t="shared" si="3"/>
         <v>1.43</v>
       </c>
@@ -19867,7 +19908,7 @@
       <c r="M122" s="13">
         <v>17164.95</v>
       </c>
-      <c r="P122" s="43"/>
+      <c r="P122" s="42"/>
       <c r="Q122" s="20"/>
       <c r="S122" s="16"/>
       <c r="T122" s="16"/>
@@ -19877,24 +19918,24 @@
     </row>
     <row r="123" spans="1:24">
       <c r="A123" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B123" s="42">
+        <v>52</v>
+      </c>
+      <c r="B123" s="41">
         <v>42036</v>
       </c>
       <c r="C123" s="10">
         <v>119.63</v>
       </c>
-      <c r="D123" s="44">
+      <c r="D123" s="43">
         <v>52.9</v>
       </c>
       <c r="E123" s="22">
         <v>2</v>
       </c>
-      <c r="F123" s="38">
+      <c r="F123" s="37">
         <v>0.25</v>
       </c>
-      <c r="G123" s="39">
+      <c r="G123" s="38">
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
@@ -19916,7 +19957,7 @@
       <c r="M123" s="13">
         <v>18132.7</v>
       </c>
-      <c r="P123" s="43"/>
+      <c r="P123" s="42"/>
       <c r="Q123" s="20"/>
       <c r="S123" s="16"/>
       <c r="T123" s="16"/>
@@ -19926,24 +19967,24 @@
     </row>
     <row r="124" spans="1:24">
       <c r="A124" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B124" s="42">
+        <v>53</v>
+      </c>
+      <c r="B124" s="41">
         <v>42064</v>
       </c>
       <c r="C124" s="10">
         <v>120.1</v>
       </c>
-      <c r="D124" s="44">
+      <c r="D124" s="43">
         <v>51.5</v>
       </c>
       <c r="E124" s="22">
         <v>1.94</v>
       </c>
-      <c r="F124" s="38">
+      <c r="F124" s="37">
         <v>0.25</v>
       </c>
-      <c r="G124" s="39">
+      <c r="G124" s="38">
         <f t="shared" si="3"/>
         <v>1.69</v>
       </c>
@@ -19965,7 +20006,7 @@
       <c r="M124" s="13">
         <v>17776.12</v>
       </c>
-      <c r="P124" s="43"/>
+      <c r="P124" s="42"/>
       <c r="Q124" s="20"/>
       <c r="S124" s="16"/>
       <c r="T124" s="16"/>
@@ -19975,24 +20016,24 @@
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B125" s="42">
+        <v>54</v>
+      </c>
+      <c r="B125" s="41">
         <v>42095</v>
       </c>
       <c r="C125" s="10">
         <v>119.37</v>
       </c>
-      <c r="D125" s="44">
+      <c r="D125" s="43">
         <v>51.5</v>
       </c>
       <c r="E125" s="22">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F125" s="38">
+      <c r="F125" s="37">
         <v>0.25</v>
       </c>
-      <c r="G125" s="39">
+      <c r="G125" s="38">
         <f t="shared" si="3"/>
         <v>1.7999999999999998</v>
       </c>
@@ -20014,7 +20055,7 @@
       <c r="M125" s="13">
         <v>17840.52</v>
       </c>
-      <c r="P125" s="43"/>
+      <c r="P125" s="42"/>
       <c r="Q125" s="20"/>
       <c r="S125" s="16"/>
       <c r="T125" s="16"/>
@@ -20024,24 +20065,24 @@
     </row>
     <row r="126" spans="1:24">
       <c r="A126" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B126" s="42">
+        <v>55</v>
+      </c>
+      <c r="B126" s="41">
         <v>42125</v>
       </c>
       <c r="C126" s="10">
         <v>124.14</v>
       </c>
-      <c r="D126" s="44">
+      <c r="D126" s="43">
         <v>52.8</v>
       </c>
       <c r="E126" s="22">
         <v>2.12</v>
       </c>
-      <c r="F126" s="38">
+      <c r="F126" s="37">
         <v>0.25</v>
       </c>
-      <c r="G126" s="39">
+      <c r="G126" s="38">
         <f t="shared" si="3"/>
         <v>1.87</v>
       </c>
@@ -20063,7 +20104,7 @@
       <c r="M126" s="13">
         <v>18010.68</v>
       </c>
-      <c r="P126" s="43"/>
+      <c r="P126" s="42"/>
       <c r="Q126" s="20"/>
       <c r="S126" s="16"/>
       <c r="T126" s="16"/>
@@ -20073,24 +20114,24 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B127" s="42">
+        <v>56</v>
+      </c>
+      <c r="B127" s="41">
         <v>42156</v>
       </c>
       <c r="C127" s="10">
         <v>122.5</v>
       </c>
-      <c r="D127" s="44">
+      <c r="D127" s="43">
         <v>53.5</v>
       </c>
       <c r="E127" s="22">
         <v>2.35</v>
       </c>
-      <c r="F127" s="38">
+      <c r="F127" s="37">
         <v>0.25</v>
       </c>
-      <c r="G127" s="39">
+      <c r="G127" s="38">
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
@@ -20112,7 +20153,7 @@
       <c r="M127" s="13">
         <v>17619.509999999998</v>
       </c>
-      <c r="P127" s="43"/>
+      <c r="P127" s="42"/>
       <c r="Q127" s="20"/>
       <c r="S127" s="16"/>
       <c r="T127" s="16"/>
@@ -20122,24 +20163,24 @@
     </row>
     <row r="128" spans="1:24">
       <c r="A128" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B128" s="42">
+        <v>57</v>
+      </c>
+      <c r="B128" s="41">
         <v>42186</v>
       </c>
       <c r="C128" s="10">
         <v>123.94</v>
       </c>
-      <c r="D128" s="44">
+      <c r="D128" s="43">
         <v>52.7</v>
       </c>
       <c r="E128" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F128" s="38">
+      <c r="F128" s="37">
         <v>0.25</v>
       </c>
-      <c r="G128" s="39">
+      <c r="G128" s="38">
         <f t="shared" si="3"/>
         <v>1.9500000000000002</v>
       </c>
@@ -20161,7 +20202,7 @@
       <c r="M128" s="13">
         <v>17689.86</v>
       </c>
-      <c r="P128" s="43"/>
+      <c r="P128" s="42"/>
       <c r="Q128" s="20"/>
       <c r="S128" s="16"/>
       <c r="T128" s="16"/>
@@ -20171,24 +20212,24 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B129" s="42">
+        <v>58</v>
+      </c>
+      <c r="B129" s="41">
         <v>42217</v>
       </c>
       <c r="C129" s="10">
         <v>121.22</v>
       </c>
-      <c r="D129" s="44">
+      <c r="D129" s="43">
         <v>51.1</v>
       </c>
       <c r="E129" s="22">
         <v>2.21</v>
       </c>
-      <c r="F129" s="38">
+      <c r="F129" s="37">
         <v>0.25</v>
       </c>
-      <c r="G129" s="39">
+      <c r="G129" s="38">
         <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
@@ -20220,24 +20261,24 @@
     </row>
     <row r="130" spans="1:24">
       <c r="A130" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B130" s="42">
+        <v>59</v>
+      </c>
+      <c r="B130" s="41">
         <v>42248</v>
       </c>
       <c r="C130" s="10">
         <v>119.86</v>
       </c>
-      <c r="D130" s="44">
+      <c r="D130" s="43">
         <v>50.2</v>
       </c>
       <c r="E130" s="22">
         <v>2.06</v>
       </c>
-      <c r="F130" s="38">
+      <c r="F130" s="37">
         <v>0.25</v>
       </c>
-      <c r="G130" s="39">
+      <c r="G130" s="38">
         <f t="shared" ref="G130:G161" si="4">E130-F130</f>
         <v>1.81</v>
       </c>
@@ -20269,24 +20310,24 @@
     </row>
     <row r="131" spans="1:24">
       <c r="A131" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B131" s="42">
+        <v>60</v>
+      </c>
+      <c r="B131" s="41">
         <v>42278</v>
       </c>
       <c r="C131" s="10">
         <v>120.62</v>
       </c>
-      <c r="D131" s="44">
+      <c r="D131" s="43">
         <v>50.1</v>
       </c>
       <c r="E131" s="22">
         <v>2.16</v>
       </c>
-      <c r="F131" s="38">
+      <c r="F131" s="37">
         <v>0.25</v>
       </c>
-      <c r="G131" s="39">
+      <c r="G131" s="38">
         <f t="shared" si="4"/>
         <v>1.9100000000000001</v>
       </c>
@@ -20318,24 +20359,24 @@
     </row>
     <row r="132" spans="1:24">
       <c r="A132" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" s="42">
+        <v>61</v>
+      </c>
+      <c r="B132" s="41">
         <v>42309</v>
       </c>
       <c r="C132" s="10">
         <v>123.1</v>
       </c>
-      <c r="D132" s="44">
+      <c r="D132" s="43">
         <v>48.6</v>
       </c>
       <c r="E132" s="22">
         <v>2.21</v>
       </c>
-      <c r="F132" s="38">
+      <c r="F132" s="37">
         <v>0.25</v>
       </c>
-      <c r="G132" s="39">
+      <c r="G132" s="38">
         <f t="shared" si="4"/>
         <v>1.96</v>
       </c>
@@ -20345,7 +20386,7 @@
       <c r="I132" s="14">
         <v>3.2</v>
       </c>
-      <c r="J132" s="45">
+      <c r="J132" s="44">
         <v>-4.3773872872728834E-3</v>
       </c>
       <c r="K132" s="19">
@@ -20367,9 +20408,9 @@
     </row>
     <row r="133" spans="1:24">
       <c r="A133" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B133" s="42">
+        <v>62</v>
+      </c>
+      <c r="B133" s="41">
         <v>42339</v>
       </c>
       <c r="C133" s="10">
@@ -20381,10 +20422,10 @@
       <c r="E133" s="22">
         <v>2.27</v>
       </c>
-      <c r="F133" s="38">
+      <c r="F133" s="37">
         <v>0.5</v>
       </c>
-      <c r="G133" s="39">
+      <c r="G133" s="38">
         <f t="shared" si="4"/>
         <v>1.77</v>
       </c>
@@ -20413,9 +20454,9 @@
     </row>
     <row r="134" spans="1:24">
       <c r="A134" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B134" s="42">
+        <v>63</v>
+      </c>
+      <c r="B134" s="41">
         <v>42370</v>
       </c>
       <c r="C134" s="10">
@@ -20427,10 +20468,10 @@
       <c r="E134" s="22">
         <v>1.94</v>
       </c>
-      <c r="F134" s="38">
+      <c r="F134" s="37">
         <v>0.5</v>
       </c>
-      <c r="G134" s="39">
+      <c r="G134" s="38">
         <f t="shared" si="4"/>
         <v>1.44</v>
       </c>
@@ -20459,9 +20500,9 @@
     </row>
     <row r="135" spans="1:24">
       <c r="A135" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B135" s="42">
+        <v>52</v>
+      </c>
+      <c r="B135" s="41">
         <v>42401</v>
       </c>
       <c r="C135" s="10">
@@ -20473,10 +20514,10 @@
       <c r="E135" s="22">
         <v>1.74</v>
       </c>
-      <c r="F135" s="38">
+      <c r="F135" s="37">
         <v>0.5</v>
       </c>
-      <c r="G135" s="39">
+      <c r="G135" s="38">
         <f t="shared" si="4"/>
         <v>1.24</v>
       </c>
@@ -20505,9 +20546,9 @@
     </row>
     <row r="136" spans="1:24">
       <c r="A136" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B136" s="42">
+        <v>53</v>
+      </c>
+      <c r="B136" s="41">
         <v>42430</v>
       </c>
       <c r="C136" s="10">
@@ -20519,10 +20560,10 @@
       <c r="E136" s="22">
         <v>1.78</v>
       </c>
-      <c r="F136" s="38">
+      <c r="F136" s="37">
         <v>0.5</v>
       </c>
-      <c r="G136" s="39">
+      <c r="G136" s="38">
         <f t="shared" si="4"/>
         <v>1.28</v>
       </c>
@@ -20551,9 +20592,9 @@
     </row>
     <row r="137" spans="1:24">
       <c r="A137" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B137" s="42">
+        <v>54</v>
+      </c>
+      <c r="B137" s="41">
         <v>42461</v>
       </c>
       <c r="C137" s="10">
@@ -20565,10 +20606,10 @@
       <c r="E137" s="22">
         <v>1.83</v>
       </c>
-      <c r="F137" s="38">
+      <c r="F137" s="37">
         <v>0.5</v>
       </c>
-      <c r="G137" s="39">
+      <c r="G137" s="38">
         <f t="shared" si="4"/>
         <v>1.33</v>
       </c>
@@ -20597,9 +20638,9 @@
     </row>
     <row r="138" spans="1:24">
       <c r="A138" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B138" s="42">
+        <v>55</v>
+      </c>
+      <c r="B138" s="41">
         <v>42491</v>
       </c>
       <c r="C138" s="10">
@@ -20611,10 +20652,10 @@
       <c r="E138" s="22">
         <v>1.84</v>
       </c>
-      <c r="F138" s="38">
+      <c r="F138" s="37">
         <v>0.5</v>
       </c>
-      <c r="G138" s="39">
+      <c r="G138" s="38">
         <f t="shared" si="4"/>
         <v>1.34</v>
       </c>
@@ -20643,9 +20684,9 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B139" s="42">
+        <v>56</v>
+      </c>
+      <c r="B139" s="41">
         <v>42522</v>
       </c>
       <c r="C139" s="10">
@@ -20657,10 +20698,10 @@
       <c r="E139" s="22">
         <v>1.49</v>
       </c>
-      <c r="F139" s="38">
+      <c r="F139" s="37">
         <v>0.5</v>
       </c>
-      <c r="G139" s="39">
+      <c r="G139" s="38">
         <f t="shared" si="4"/>
         <v>0.99</v>
       </c>
@@ -20689,9 +20730,9 @@
     </row>
     <row r="140" spans="1:24">
       <c r="A140" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B140" s="42">
+        <v>57</v>
+      </c>
+      <c r="B140" s="41">
         <v>42552</v>
       </c>
       <c r="C140" s="10">
@@ -20703,10 +20744,10 @@
       <c r="E140" s="22">
         <v>1.46</v>
       </c>
-      <c r="F140" s="38">
+      <c r="F140" s="37">
         <v>0.5</v>
       </c>
-      <c r="G140" s="39">
+      <c r="G140" s="38">
         <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
@@ -20735,9 +20776,9 @@
     </row>
     <row r="141" spans="1:24">
       <c r="A141" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B141" s="42">
+        <v>58</v>
+      </c>
+      <c r="B141" s="41">
         <v>42583</v>
       </c>
       <c r="C141" s="10">
@@ -20749,10 +20790,10 @@
       <c r="E141" s="22">
         <v>1.58</v>
       </c>
-      <c r="F141" s="38">
+      <c r="F141" s="37">
         <v>0.5</v>
       </c>
-      <c r="G141" s="39">
+      <c r="G141" s="38">
         <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
@@ -20781,9 +20822,9 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B142" s="42">
+        <v>59</v>
+      </c>
+      <c r="B142" s="41">
         <v>42614</v>
       </c>
       <c r="C142" s="10">
@@ -20795,10 +20836,10 @@
       <c r="E142" s="22">
         <v>1.6</v>
       </c>
-      <c r="F142" s="38">
+      <c r="F142" s="37">
         <v>0.5</v>
       </c>
-      <c r="G142" s="39">
+      <c r="G142" s="38">
         <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
@@ -20827,9 +20868,9 @@
     </row>
     <row r="143" spans="1:24">
       <c r="A143" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B143" s="42">
+        <v>60</v>
+      </c>
+      <c r="B143" s="41">
         <v>42644</v>
       </c>
       <c r="C143" s="10">
@@ -20841,10 +20882,10 @@
       <c r="E143" s="22">
         <v>1.84</v>
       </c>
-      <c r="F143" s="38">
+      <c r="F143" s="37">
         <v>0.5</v>
       </c>
-      <c r="G143" s="39">
+      <c r="G143" s="38">
         <f t="shared" si="4"/>
         <v>1.34</v>
       </c>
@@ -20873,9 +20914,9 @@
     </row>
     <row r="144" spans="1:24">
       <c r="A144" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B144" s="42">
+        <v>61</v>
+      </c>
+      <c r="B144" s="41">
         <v>42675</v>
       </c>
       <c r="C144" s="10">
@@ -20887,10 +20928,10 @@
       <c r="E144" s="22">
         <v>2.37</v>
       </c>
-      <c r="F144" s="38">
+      <c r="F144" s="37">
         <v>0.5</v>
       </c>
-      <c r="G144" s="39">
+      <c r="G144" s="38">
         <f t="shared" si="4"/>
         <v>1.87</v>
       </c>
@@ -20919,9 +20960,9 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B145" s="42">
+        <v>62</v>
+      </c>
+      <c r="B145" s="41">
         <v>42705</v>
       </c>
       <c r="C145" s="10">
@@ -20933,10 +20974,10 @@
       <c r="E145" s="22">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F145" s="38">
+      <c r="F145" s="37">
         <v>0.75</v>
       </c>
-      <c r="G145" s="39">
+      <c r="G145" s="38">
         <f t="shared" si="4"/>
         <v>1.7000000000000002</v>
       </c>
@@ -20965,24 +21006,24 @@
     </row>
     <row r="146" spans="1:24">
       <c r="A146" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B146" s="42">
+        <v>63</v>
+      </c>
+      <c r="B146" s="41">
         <v>42736</v>
       </c>
       <c r="C146" s="10">
         <v>112.78</v>
       </c>
-      <c r="D146" s="37">
+      <c r="D146" s="36">
         <v>56</v>
       </c>
       <c r="E146" s="22">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F146" s="38">
+      <c r="F146" s="37">
         <v>0.75</v>
       </c>
-      <c r="G146" s="39">
+      <c r="G146" s="38">
         <f t="shared" si="4"/>
         <v>1.7000000000000002</v>
       </c>
@@ -21005,28 +21046,28 @@
     </row>
     <row r="147" spans="1:24">
       <c r="A147" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B147" s="42">
+        <v>52</v>
+      </c>
+      <c r="B147" s="41">
         <v>42767</v>
       </c>
       <c r="C147" s="10">
         <v>112.77</v>
       </c>
-      <c r="D147" s="37">
+      <c r="D147" s="36">
         <v>57.7</v>
       </c>
       <c r="E147" s="22">
         <v>2.36</v>
       </c>
-      <c r="F147" s="38">
+      <c r="F147" s="37">
         <v>0.75</v>
       </c>
-      <c r="G147" s="39">
+      <c r="G147" s="38">
         <f t="shared" si="4"/>
         <v>1.6099999999999999</v>
       </c>
-      <c r="H147" s="38">
+      <c r="H147" s="37">
         <v>0.66</v>
       </c>
       <c r="I147" s="14">
@@ -21045,28 +21086,28 @@
     </row>
     <row r="148" spans="1:24">
       <c r="A148" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B148" s="42">
+        <v>53</v>
+      </c>
+      <c r="B148" s="41">
         <v>42795</v>
       </c>
       <c r="C148" s="10">
         <v>111.38</v>
       </c>
-      <c r="D148" s="37">
+      <c r="D148" s="36">
         <v>57.2</v>
       </c>
       <c r="E148" s="22">
         <v>2.4</v>
       </c>
-      <c r="F148" s="38">
+      <c r="F148" s="37">
         <v>1</v>
       </c>
-      <c r="G148" s="39">
+      <c r="G148" s="38">
         <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
-      <c r="H148" s="38">
+      <c r="H148" s="37">
         <v>0.79</v>
       </c>
       <c r="I148" s="14">
@@ -21085,28 +21126,28 @@
     </row>
     <row r="149" spans="1:24">
       <c r="A149" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B149" s="42">
+        <v>54</v>
+      </c>
+      <c r="B149" s="41">
         <v>42826</v>
       </c>
       <c r="C149" s="10">
         <v>111.47</v>
       </c>
-      <c r="D149" s="37">
+      <c r="D149" s="36">
         <v>54.8</v>
       </c>
       <c r="E149" s="22">
         <v>2.29</v>
       </c>
-      <c r="F149" s="38">
+      <c r="F149" s="37">
         <v>1</v>
       </c>
-      <c r="G149" s="39">
+      <c r="G149" s="38">
         <f t="shared" si="4"/>
         <v>1.29</v>
       </c>
-      <c r="H149" s="38">
+      <c r="H149" s="37">
         <v>0.9</v>
       </c>
       <c r="I149" s="14">
@@ -21125,28 +21166,28 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B150" s="42">
+        <v>55</v>
+      </c>
+      <c r="B150" s="41">
         <v>42856</v>
       </c>
       <c r="C150" s="10">
         <v>110.77</v>
       </c>
-      <c r="D150" s="37">
+      <c r="D150" s="36">
         <v>54.9</v>
       </c>
       <c r="E150" s="22">
         <v>2.21</v>
       </c>
-      <c r="F150" s="38">
+      <c r="F150" s="37">
         <v>1</v>
       </c>
-      <c r="G150" s="39">
+      <c r="G150" s="38">
         <f t="shared" si="4"/>
         <v>1.21</v>
       </c>
-      <c r="H150" s="38">
+      <c r="H150" s="37">
         <v>0.91</v>
       </c>
       <c r="I150" s="14">
@@ -21166,28 +21207,28 @@
     </row>
     <row r="151" spans="1:24">
       <c r="A151" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151" s="42">
+        <v>56</v>
+      </c>
+      <c r="B151" s="41">
         <v>42887</v>
       </c>
       <c r="C151" s="10">
         <v>112.4</v>
       </c>
-      <c r="D151" s="37">
+      <c r="D151" s="36">
         <v>57.8</v>
       </c>
       <c r="E151" s="22">
         <v>2.31</v>
       </c>
-      <c r="F151" s="38">
+      <c r="F151" s="37">
         <v>1.25</v>
       </c>
-      <c r="G151" s="39">
+      <c r="G151" s="38">
         <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
-      <c r="H151" s="38">
+      <c r="H151" s="37">
         <v>1.05</v>
       </c>
       <c r="I151" s="14">
@@ -21203,28 +21244,28 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B152" s="42">
+        <v>57</v>
+      </c>
+      <c r="B152" s="41">
         <v>42917</v>
       </c>
       <c r="C152" s="10">
         <v>110.24</v>
       </c>
-      <c r="D152" s="37">
+      <c r="D152" s="36">
         <v>56.3</v>
       </c>
       <c r="E152" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F152" s="38">
+      <c r="F152" s="37">
         <v>1.25</v>
       </c>
-      <c r="G152" s="39">
+      <c r="G152" s="38">
         <f t="shared" si="4"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="H152" s="38">
+      <c r="H152" s="37">
         <v>1.06</v>
       </c>
       <c r="I152" s="14">
@@ -21240,28 +21281,28 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B153" s="42">
+        <v>58</v>
+      </c>
+      <c r="B153" s="41">
         <v>42948</v>
       </c>
       <c r="C153" s="10">
         <v>109.96299999999999</v>
       </c>
-      <c r="D153" s="37">
+      <c r="D153" s="36">
         <v>58.8</v>
       </c>
       <c r="E153" s="22">
         <v>2.12</v>
       </c>
-      <c r="F153" s="38">
+      <c r="F153" s="37">
         <v>1.25</v>
       </c>
-      <c r="G153" s="39">
+      <c r="G153" s="38">
         <f t="shared" si="4"/>
         <v>0.87000000000000011</v>
       </c>
-      <c r="H153" s="38">
+      <c r="H153" s="37">
         <v>1.07</v>
       </c>
       <c r="I153" s="14">
@@ -21277,28 +21318,28 @@
     </row>
     <row r="154" spans="1:24">
       <c r="A154" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B154" s="42">
+        <v>59</v>
+      </c>
+      <c r="B154" s="41">
         <v>42979</v>
       </c>
       <c r="C154" s="10">
         <v>112.53700000000001</v>
       </c>
-      <c r="D154" s="37">
+      <c r="D154" s="36">
         <v>60.8</v>
       </c>
       <c r="E154" s="22">
         <v>2.33</v>
       </c>
-      <c r="F154" s="38">
+      <c r="F154" s="37">
         <v>1.25</v>
       </c>
-      <c r="G154" s="39">
+      <c r="G154" s="38">
         <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
-      <c r="H154" s="38">
+      <c r="H154" s="37">
         <v>1.05</v>
       </c>
       <c r="I154" s="14">
@@ -21314,28 +21355,28 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B155" s="42">
+        <v>60</v>
+      </c>
+      <c r="B155" s="41">
         <v>43009</v>
       </c>
       <c r="C155" s="10">
         <v>113.648</v>
       </c>
-      <c r="D155" s="37">
+      <c r="D155" s="36">
         <v>58.7</v>
       </c>
       <c r="E155" s="22">
         <v>2.38</v>
       </c>
-      <c r="F155" s="38">
+      <c r="F155" s="37">
         <v>1.25</v>
       </c>
-      <c r="G155" s="39">
+      <c r="G155" s="38">
         <f t="shared" si="4"/>
         <v>1.1299999999999999</v>
       </c>
-      <c r="H155" s="38">
+      <c r="H155" s="37">
         <v>1.06</v>
       </c>
       <c r="I155" s="14">
@@ -21351,28 +21392,28 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B156" s="42">
+        <v>61</v>
+      </c>
+      <c r="B156" s="41">
         <v>43040</v>
       </c>
       <c r="C156" s="10">
         <v>112.53</v>
       </c>
-      <c r="D156" s="37">
+      <c r="D156" s="36">
         <v>58.2</v>
       </c>
       <c r="E156" s="22">
         <v>2.42</v>
       </c>
-      <c r="F156" s="38">
+      <c r="F156" s="37">
         <v>1.25</v>
       </c>
-      <c r="G156" s="39">
+      <c r="G156" s="38">
         <f t="shared" si="4"/>
         <v>1.17</v>
       </c>
-      <c r="H156" s="38">
+      <c r="H156" s="37">
         <v>1.07</v>
       </c>
       <c r="I156" s="14">
@@ -21388,28 +21429,28 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B157" s="42">
+        <v>62</v>
+      </c>
+      <c r="B157" s="41">
         <v>43070</v>
       </c>
       <c r="C157" s="10">
         <v>112.7</v>
       </c>
-      <c r="D157" s="37">
+      <c r="D157" s="36">
         <v>59.7</v>
       </c>
       <c r="E157" s="22">
         <v>2.4</v>
       </c>
-      <c r="F157" s="38">
+      <c r="F157" s="37">
         <v>1.5</v>
       </c>
-      <c r="G157" s="39">
+      <c r="G157" s="38">
         <f t="shared" si="4"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="H157" s="38">
+      <c r="H157" s="37">
         <v>1.31</v>
       </c>
       <c r="I157" s="14">
@@ -21425,28 +21466,28 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B158" s="42">
+        <v>63</v>
+      </c>
+      <c r="B158" s="41">
         <v>43101</v>
       </c>
       <c r="C158" s="10">
         <v>109.19</v>
       </c>
-      <c r="D158" s="37">
+      <c r="D158" s="36">
         <v>59.1</v>
       </c>
       <c r="E158" s="22">
         <v>2.72</v>
       </c>
-      <c r="F158" s="38">
+      <c r="F158" s="37">
         <v>1.5</v>
       </c>
-      <c r="G158" s="39">
+      <c r="G158" s="38">
         <f t="shared" si="4"/>
         <v>1.2200000000000002</v>
       </c>
-      <c r="H158" s="38">
+      <c r="H158" s="37">
         <v>1.32</v>
       </c>
       <c r="I158" s="14">
@@ -21462,28 +21503,28 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B159" s="42">
+        <v>52</v>
+      </c>
+      <c r="B159" s="41">
         <v>43132</v>
       </c>
       <c r="C159" s="10">
         <v>106.65900000000001</v>
       </c>
-      <c r="D159" s="37">
+      <c r="D159" s="36">
         <v>60.8</v>
       </c>
       <c r="E159" s="22">
         <v>2.87</v>
       </c>
-      <c r="F159" s="38">
+      <c r="F159" s="37">
         <v>1.5</v>
       </c>
-      <c r="G159" s="39">
+      <c r="G159" s="38">
         <f t="shared" si="4"/>
         <v>1.37</v>
       </c>
-      <c r="H159" s="38">
+      <c r="H159" s="37">
         <v>1.41</v>
       </c>
       <c r="I159" s="14">
@@ -21499,28 +21540,28 @@
     </row>
     <row r="160" spans="1:24">
       <c r="A160" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B160" s="42">
+        <v>53</v>
+      </c>
+      <c r="B160" s="41">
         <v>43160</v>
       </c>
       <c r="C160" s="10">
         <v>106.29</v>
       </c>
-      <c r="D160" s="37">
+      <c r="D160" s="36">
         <v>59.3</v>
       </c>
       <c r="E160" s="22">
         <v>2.74</v>
       </c>
-      <c r="F160" s="38">
+      <c r="F160" s="37">
         <v>1.75</v>
       </c>
-      <c r="G160" s="39">
+      <c r="G160" s="38">
         <f t="shared" si="4"/>
         <v>0.99000000000000021</v>
       </c>
-      <c r="H160" s="38">
+      <c r="H160" s="37">
         <v>1.68</v>
       </c>
       <c r="I160" s="14">
@@ -21536,28 +21577,28 @@
     </row>
     <row r="161" spans="1:20">
       <c r="A161" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B161" s="42">
+        <v>54</v>
+      </c>
+      <c r="B161" s="41">
         <v>43191</v>
       </c>
       <c r="C161" s="10">
         <v>109.331</v>
       </c>
-      <c r="D161" s="37">
+      <c r="D161" s="36">
         <v>57.3</v>
       </c>
       <c r="E161" s="22">
         <v>2.95</v>
       </c>
-      <c r="F161" s="38">
+      <c r="F161" s="37">
         <v>1.75</v>
       </c>
-      <c r="G161" s="39">
+      <c r="G161" s="38">
         <f t="shared" si="4"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="H161" s="38">
+      <c r="H161" s="37">
         <v>1.68</v>
       </c>
       <c r="I161" s="22">
@@ -21573,28 +21614,28 @@
     </row>
     <row r="162" spans="1:20">
       <c r="A162" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B162" s="42">
+        <v>55</v>
+      </c>
+      <c r="B162" s="41">
         <v>43221</v>
       </c>
       <c r="C162" s="10">
         <v>108.79</v>
       </c>
-      <c r="D162" s="37">
+      <c r="D162" s="36">
         <v>58.7</v>
       </c>
       <c r="E162" s="22">
         <v>2.83</v>
       </c>
-      <c r="F162" s="38">
+      <c r="F162" s="37">
         <v>1.75</v>
       </c>
-      <c r="G162" s="39">
+      <c r="G162" s="38">
         <f t="shared" ref="G162:G193" si="5">E162-F162</f>
         <v>1.08</v>
       </c>
-      <c r="H162" s="38">
+      <c r="H162" s="37">
         <v>1.69</v>
       </c>
       <c r="I162" s="22">
@@ -21610,28 +21651,28 @@
     </row>
     <row r="163" spans="1:20">
       <c r="A163" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B163" s="42">
+        <v>56</v>
+      </c>
+      <c r="B163" s="41">
         <v>43252</v>
       </c>
       <c r="C163" s="10">
         <v>110.68</v>
       </c>
-      <c r="D163" s="37">
+      <c r="D163" s="36">
         <v>60.2</v>
       </c>
       <c r="E163" s="22">
         <v>2.85</v>
       </c>
-      <c r="F163" s="38">
+      <c r="F163" s="37">
         <v>2</v>
       </c>
-      <c r="G163" s="39">
+      <c r="G163" s="38">
         <f t="shared" si="5"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="H163" s="38">
+      <c r="H163" s="37">
         <v>1.9</v>
       </c>
       <c r="I163" s="22">
@@ -21647,28 +21688,28 @@
     </row>
     <row r="164" spans="1:20">
       <c r="A164" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B164" s="42">
+        <v>57</v>
+      </c>
+      <c r="B164" s="41">
         <v>43282</v>
       </c>
       <c r="C164" s="10">
         <v>111.81</v>
       </c>
-      <c r="D164" s="37">
+      <c r="D164" s="36">
         <v>58.1</v>
       </c>
       <c r="E164" s="22">
         <v>2.96</v>
       </c>
-      <c r="F164" s="38">
+      <c r="F164" s="37">
         <v>2</v>
       </c>
-      <c r="G164" s="39">
+      <c r="G164" s="38">
         <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
-      <c r="H164" s="38">
+      <c r="H164" s="37">
         <v>1.9</v>
       </c>
       <c r="I164" s="22">
@@ -21684,28 +21725,28 @@
     </row>
     <row r="165" spans="1:20">
       <c r="A165" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B165" s="42">
+        <v>58</v>
+      </c>
+      <c r="B165" s="41">
         <v>43313</v>
       </c>
       <c r="C165" s="10">
         <v>111.07</v>
       </c>
-      <c r="D165" s="37">
+      <c r="D165" s="36">
         <v>61.3</v>
       </c>
       <c r="E165" s="22">
         <v>2.86</v>
       </c>
-      <c r="F165" s="38">
+      <c r="F165" s="37">
         <v>2</v>
       </c>
-      <c r="G165" s="39">
+      <c r="G165" s="38">
         <f t="shared" si="5"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="H165" s="38">
+      <c r="H165" s="37">
         <v>1.91</v>
       </c>
       <c r="I165" s="22">
@@ -21721,28 +21762,28 @@
     </row>
     <row r="166" spans="1:20">
       <c r="A166" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B166" s="42">
+        <v>59</v>
+      </c>
+      <c r="B166" s="41">
         <v>43344</v>
       </c>
       <c r="C166" s="10">
         <v>113.69</v>
       </c>
-      <c r="D166" s="37">
+      <c r="D166" s="36">
         <v>59.8</v>
       </c>
       <c r="E166" s="9">
         <v>3.05</v>
       </c>
-      <c r="F166" s="38">
+      <c r="F166" s="37">
         <v>2.25</v>
       </c>
-      <c r="G166" s="39">
+      <c r="G166" s="38">
         <f t="shared" si="5"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="H166" s="38">
+      <c r="H166" s="37">
         <v>2.15</v>
       </c>
       <c r="I166" s="14">
@@ -21758,12 +21799,12 @@
     </row>
     <row r="167" spans="1:20">
       <c r="A167" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B167" s="42">
+        <v>60</v>
+      </c>
+      <c r="B167" s="41">
         <v>43374</v>
       </c>
-      <c r="G167" s="39">
+      <c r="G167" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pepetts/lesson/python_lesson/asset_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7BA7AB-C6FE-0B40-8222-617033DE1B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C655A6-6606-A645-9EF6-7F2681396DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2160" windowWidth="27660" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,11 +67,10 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="游ゴシック"/>
-            <family val="2"/>
+            <family val="3"/>
             <charset val="128"/>
-            <scheme val="minor"/>
           </rPr>
           <t>数値が大きいほど投資環境が良好</t>
         </r>
@@ -163,43 +162,13 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color rgb="FF000000"/>
+            <color theme="1"/>
             <rFont val="游ゴシック"/>
-            <family val="3"/>
+            <family val="2"/>
             <charset val="128"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>FF</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="游ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>金利誘導目標</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="游ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="游ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">FF金利誘導目標
 </t>
         </r>
       </text>
@@ -813,10 +782,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -860,30 +829,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,8 +860,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1291,18 +1260,18 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="29" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="29" customWidth="1"/>
-    <col min="8" max="29" width="7.5703125" style="29" customWidth="1"/>
-    <col min="30" max="16384" width="7.5703125" style="29"/>
+    <col min="1" max="1" width="4.28515625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="28" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="28" customWidth="1"/>
+    <col min="8" max="34" width="7.5703125" style="28" customWidth="1"/>
+    <col min="35" max="16384" width="7.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
@@ -1312,7 +1281,7 @@
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="B2" s="30">
-        <v>43608</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1339,13 +1308,13 @@
       <c r="A5" s="45">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="49">
         <v>2.42</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="49">
         <v>1.7</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1377,12 +1346,12 @@
       <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="57">
         <f>C18-C5</f>
-        <v>1.0000000000000231E-2</v>
+        <v>-2.9999999999999805E-2</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="59" t="s">
@@ -1397,15 +1366,15 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="29" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="55"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="46"/>
@@ -1414,7 +1383,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="4">
         <f>C7</f>
-        <v>1.0000000000000231E-2</v>
+        <v>-2.9999999999999805E-2</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
@@ -1425,11 +1394,11 @@
       <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="53">
-        <v>2.23</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D10" s="53">
         <v>1.89</v>
@@ -1452,7 +1421,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="4">
         <f>C10-D10</f>
-        <v>0.34000000000000008</v>
+        <v>0.36999999999999988</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>19</v>
@@ -1463,14 +1432,14 @@
       <c r="A12" s="45">
         <v>4</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="57">
         <f>C19-C18</f>
-        <v>-0.7200000000000002</v>
-      </c>
-      <c r="D12" s="49">
+        <v>-0.68000000000000016</v>
+      </c>
+      <c r="D12" s="57">
         <f>D19-D18</f>
         <v>-0.83000000000000007</v>
       </c>
@@ -1492,7 +1461,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="4">
         <f>C12-D12</f>
-        <v>0.10999999999999988</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>22</v>
@@ -1503,7 +1472,7 @@
       <c r="A14" s="45">
         <v>5</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="53">
@@ -1518,7 +1487,7 @@
       <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="60">
         <f>IF(E15&lt;=1,2,IF(E15&gt;1,-2))</f>
         <v>-2</v>
       </c>
@@ -1532,10 +1501,10 @@
         <f>C14/D14</f>
         <v>1.0403297275722336</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="55"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" ht="19" customHeight="1" thickBot="1">
       <c r="F16" s="5" t="s">
@@ -1558,13 +1527,13 @@
       <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="28">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="C18" s="29">
+        <v>2.39</v>
+      </c>
+      <c r="D18" s="29">
         <v>2.83</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <f>'[1]10年国債利回り'!B38</f>
         <v>2.42</v>
       </c>
@@ -1573,20 +1542,25 @@
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="29">
         <v>1.71</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="29">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -1598,16 +1572,11 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -1628,17 +1597,18 @@
   <dimension ref="A1:G780"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B765" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B761" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H775" sqref="H775"/>
+      <selection pane="bottomRight" activeCell="H777" sqref="H777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="23" width="17.7109375" style="26" customWidth="1"/>
-    <col min="24" max="16384" width="17.7109375" style="26"/>
+    <col min="2" max="7" width="15" style="26" customWidth="1"/>
+    <col min="8" max="28" width="17.7109375" style="26" customWidth="1"/>
+    <col min="29" max="16384" width="17.7109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -14043,18 +14013,18 @@
       <c r="B780">
         <v>2.42</v>
       </c>
-      <c r="C780" s="34">
+      <c r="C780">
         <v>2.5</v>
       </c>
       <c r="D780">
-        <v>2.4300000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="E780" s="33">
         <f t="shared" si="5"/>
-        <v>-6.999999999999984E-2</v>
+        <v>-0.10999999999999988</v>
       </c>
       <c r="F780">
-        <v>2.23</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G780">
         <v>92.268299999999996</v>
@@ -14077,13 +14047,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="29" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="29" customWidth="1"/>
-    <col min="8" max="29" width="7.5703125" style="29" customWidth="1"/>
-    <col min="30" max="16384" width="7.5703125" style="29"/>
+    <col min="1" max="1" width="4.28515625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="28" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="28" customWidth="1"/>
+    <col min="8" max="34" width="7.5703125" style="28" customWidth="1"/>
+    <col min="35" max="16384" width="7.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -14115,13 +14085,13 @@
       <c r="A5" s="45">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="49">
         <v>1.91</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="49">
         <v>1.1499999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -14153,10 +14123,10 @@
       <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="57">
         <f>C18-C5</f>
         <v>0.95</v>
       </c>
@@ -14173,15 +14143,15 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="29" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="55"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="46"/>
@@ -14201,7 +14171,7 @@
       <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="53">
@@ -14239,14 +14209,14 @@
       <c r="A12" s="45">
         <v>4</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="57">
         <f>C19-C18</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="57">
         <f>D19-D18</f>
         <v>-0.12000000000000011</v>
       </c>
@@ -14279,7 +14249,7 @@
       <c r="A14" s="45">
         <v>5</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="53">
@@ -14294,7 +14264,7 @@
       <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="60">
         <f>IF(E15&lt;=1,2,IF(E15&gt;1,-2))</f>
         <v>-2</v>
       </c>
@@ -14308,10 +14278,10 @@
         <f>C14/D14</f>
         <v>1.0147823910263785</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="55"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" ht="19" customHeight="1" thickBot="1">
       <c r="F16" s="5" t="s">
@@ -14334,13 +14304,13 @@
       <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="29">
         <v>2.86</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="29">
         <v>2.12</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <f>'[1]10年国債利回り'!B38</f>
         <v>2.42</v>
       </c>
@@ -14349,20 +14319,25 @@
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="29">
         <v>1.71</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="29">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -14374,16 +14349,11 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -14404,10 +14374,10 @@
   <dimension ref="A1:X180"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="G160" activeCellId="3" sqref="E161:F161 I161 H160 G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18"/>
@@ -14428,8 +14398,8 @@
     <col min="16" max="16" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" style="9" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="39" width="7.5703125" style="9" customWidth="1"/>
-    <col min="40" max="16384" width="7.5703125" style="9"/>
+    <col min="19" max="44" width="7.5703125" style="9" customWidth="1"/>
+    <col min="45" max="16384" width="7.5703125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
